--- a/wq_study_results.xlsx
+++ b/wq_study_results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4731" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4731" uniqueCount="547">
   <si>
     <t xml:space="preserve">The results listed on this page are from residential homes in Chicago that have volunteered to have their water tested for lead as part of a research study. The data that is shown below is quality controlled.  The study is ongoing, and the results below are a small portion of the large sample population necessary for statistical evaluation. The data below will be further reviewed prior to inclusion in statistical evaluation.  The results are anonymized to the block level, so the complete address of each home is not posted. In cases where a sample tests over 15 parts per billion (the action limit set by the EPA), the Department of Water Management will contact the homeowner to discuss the results and schedule a time to resample the water and inspect the home’s plumbing and electrical wiring to better evaluate possible causes.  All results are shown in PPB (Parts per Billion).  In cases where multiple homes on the same block have results, the location is further amended as "Site 1", "Site 2", etc.</t>
   </si>
@@ -1160,73 +1160,91 @@
     <t xml:space="preserve">4701 N Sacramento Ave. Chicago, IL 60625</t>
   </si>
   <si>
-    <t xml:space="preserve">48XX N MARRIMAC AVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48XX N MARRIMAC AVE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">48XX N MAGNOLIA AVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48XX W. Eddy St.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49XX N GLENWOOD AVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49XX W. Cortez St.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49XX N MAGNOLIA AVE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">49XX W. Superior St.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49XX W. Walton St.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50XX N. Neenah Ave.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50XX W BALMORAL AVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50XX N WINCHESTER AVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51XX N WINCHESTER AVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51XX S MORGAN ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51XX S LONG AVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52XX S MORGAN ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">52XX W. Congress Pkwy. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">53XX N. Bernard St.**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53XX W. Congress Pkwy. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">53XX N LATROBE AVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53XX N LIEB AVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53XX S MORGAN ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53XX W. Congress Pkwy.</t>
+    <t xml:space="preserve">4800 N Merrimac Ave. Chicago, IL 60630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4800 N Magnolia Ave. Chicago, IL 60640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4800 W Eddy St. Chicago, IL 60641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4900 N Glenwood Ave. Chicago, IL 60640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4900 W Cortez St. Chicago, IL 60651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4900 N Magnolia Ave. Chicago, IL 60640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4901 N Magnolia Ave. Chicago, IL 60640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4900 W Superior St. Chicago, IL 60644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4900 W Walton St. Chicago, IL 60651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000 N Neenah Ave. Chicago, IL 60656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000 W Balmoral Ave. Chicago, IL 60630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000 N Winchester Ave. Chicago, IL 60640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5100 N Winchester Ave. Chicago, IL 60640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5100 S Morgan St. Chicago, IL 60609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5100 Long Ave. Chicago, IL 60638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5200 S Morgan St. Chicago, IL 60609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5201 S Morgan St. Chicago, IL 60609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5200 W Congress Pkwy Chicago, IL 60644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5201 W Congress Pkwy Chicago, IL 60644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5202 W Congress Pkwy Chicago, IL 60644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5203 W Congress Pkwy Chicago, IL 60644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5300 N Bernard St. Chicago, IL 60625 **</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5300 W Congress Pkwy Chicago, IL 60644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5301 W Congress Pkwy Chicago, IL 60644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5300 N Latrobe Ave. Chicago, IL 60630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5302 W Congress Pkwy Chicago, IL 60644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5300 N Lieb Ave. Chicago, IL 60630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5300 S Morgan St. Chicago, IL 60609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5303 W Congress Pkwy Chicago, IL 60644</t>
   </si>
   <si>
     <t xml:space="preserve">2.1 J</t>
@@ -1235,148 +1253,157 @@
     <t xml:space="preserve">1.3 J</t>
   </si>
   <si>
-    <t xml:space="preserve">53XX S SPAULDING AVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54XX S MORGAN ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">54XX W. Congress Pkwy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54XX W. Congress Pkwy. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">54XX N LOTUS AVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54XX S. Seeley Ave. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">54XX S MORGAN ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54XX S. Hoyne Ave.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54XX S SPAULDING AVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56XX S. Christiana Ave. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">56XX S. Christiana Ave.</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">57XX S. Christiana Ave. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">57XX S CHRISTIANA AVE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">57XX N MELVINA AVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57XX S. Oak Park Ave.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57XX W. Midway Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57XX W. Midway Park </t>
-  </si>
-  <si>
-    <t xml:space="preserve">57XX W. Race Ave.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58XX W BYRON ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58XX S. Christiana Ave.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58XX S. Rutherford Ave.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59XX S. Campbell Ave.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60XX S. Campbell Ave. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">60XX S. Moody Ave.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60XX N. Leader Ave.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60XX S. Kolin Ave.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61XXS. Campbell Ave.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61XX S. Moody Ave.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61XX W LELAND AVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62XX W GRAND AVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62XX S. Campbell Ave.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62XX N. Kirkwood Ave.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63XX S Kilpatrick Ave. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">63XX S Kilpatrick Ave.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63XX S. Kilpatrick Ave. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">63XX S. Kilpatrick Ave.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64XX S. Kilpatrick Ave.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64XX S. Maplewood Ave.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6XX W 103RD ST</t>
+    <t xml:space="preserve">5300 S Spaulding Ave. Chicago, IL 60632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5400 S Morgan St. Chicago, IL 60609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5400 W Congress Pkwy Chicago, IL 60644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5401 W Congress Pkwy Chicago, IL 60644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5400 N Lotus Ave. Chicago, IL 60630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5400 S Seeley Ave. Chicago, IL 60609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5401 S Morgan St. Chicago, IL 60609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5402 W Congress Pkwy Chicago, IL 60644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5400 S Hoyne Ave. Chicago, IL 60609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5403 W Congress Pkwy Chicago, IL 60644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5400 S Spaulding Ave. Chicago, IL 60632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5404 W Congress Pkwy Chicago, IL 60644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5600 S Christiana Ave. Chicago, IL 60629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5601 S Christiana Ave. Chicago, IL 60629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5602 S Christiana Ave. Chicago, IL 60629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5603 S Christiana Ave. Chicago, IL 60629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5700 S Christiana Ave. Chicago, IL 60629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5702 S Christiana Ave. Chicago, IL 60629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5701 S Christiana Ave. Chicago, IL 60629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5700 N Melvina Ave. Chicago, IL 60646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5700 S Oak Park Ave. Chicago, IL 60638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5700 W Midway Park Chicago, IL 60644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5700 W Race Ave. Chicago, IL 60644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5701 W Midway Park Chicago, IL 60644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5800 W Byron St. Chicago, IL 60634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5800 S Christiana Ave. Chicago, IL 60629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5800 S Rutherford Ave. Chicago, IL 60638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5900 S Campbell Ave. Chicago, IL 60629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6000 S Campbell Ave. Chicago, IL 60629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6000 S Moody Ave. Chicago, IL 60638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6001 S Campbell Ave. Chicago, IL 60629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6000 N Leader Ave. Chicago, IL 60646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6002 S Campbell Ave. Chicago, IL 60629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6000 S Kolin Ave. Chicago, IL 60629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6003 S Campbell Ave. Chicago, IL 60629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6004 S Campbell Ave. Chicago, IL 60629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6005 S Campbell Ave. Chicago, IL 60629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6100 S Campbell Ave. Chicago, IL 60629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6100 S Moody Ave. Chicago, IL 60638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6100 W Leland Ave. Chicago, IL 60630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6200 W Grand Ave. Chicago, IL 60639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6200 S Campbell Ave. Chicago, IL 60629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6200 N Kirkwood Ave. Chicago, IL 60646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6300 S Kilpatrick Ave. Chicago, IL 60629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6301 S Kilpatrick Ave. Chicago, IL 60629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6400 S Kilpatrick Ave. Chicago, IL 60629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6400 S Maplewood Ave. Chicago, IL 60629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600 W 103rd St. Chicago, IL 60628</t>
   </si>
   <si>
     <t xml:space="preserve">6500 S Kilpatrick Ave. Chicago, IL 60629</t>
   </si>
   <si>
-    <t xml:space="preserve">65XX S. Rockwell St.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65XX S. Maryland Ave.</t>
+    <t xml:space="preserve">6500 S Rockwell St. Chicago, IL 60629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6500 S Maryland Ave. Chicago, IL 60637</t>
   </si>
   <si>
     <t xml:space="preserve">6501 S Kilpatrick Ave. Chicago, IL 60629</t>
@@ -1394,28 +1421,34 @@
     <t xml:space="preserve">6504 S Kilpatrick Ave. Chicago, IL 60629</t>
   </si>
   <si>
-    <t xml:space="preserve">66XX N ODELL AVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67XX W. 64th St.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67XX N. Jean Ave.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6824 S. Normal Blvd.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70XX S. Perry Ave.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71XX S. Honore St. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">71XX S. Rockwell St.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72XX S CRANDON AVE</t>
+    <t xml:space="preserve">6600 N Odell Ave. Chicago, IL 60631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6720 W 64th St, Chicago, IL 60638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6700 N Jean Ave. Chicago, IL 60646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6824 S Normal Blvd. Chicago, IL 60621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7000 S Perry Ave. Chicago, IL 60621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7100 S Honore St. Chicago, IL 60636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7101 S Honore St. Chicago, IL 60636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7100 S Rockwell St. Chicago, IL 60629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7102 S Honore St. Chicago, IL 60636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7200 S Crandon Ave. Chicago, IL 60649</t>
   </si>
   <si>
     <t xml:space="preserve">72XX N. Claremont Ave.</t>
@@ -1436,10 +1469,16 @@
     <t xml:space="preserve">XX E. 37th Pl.</t>
   </si>
   <si>
-    <t xml:space="preserve">73XX S. Honore St. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">73XX S. Rockwell St. </t>
+    <t xml:space="preserve">7300 S Honore St. Chicago, IL 60636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7301 S Honore St. Chicago, IL 60636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7300 S Rockwell St. Chicago, IL 60629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7301 S Rockwell St. Chicago, IL 60629</t>
   </si>
   <si>
     <t xml:space="preserve">73XX S ROCKWELL ST</t>
@@ -1466,12 +1505,18 @@
     <t xml:space="preserve">81XX S. Avalon Ave.</t>
   </si>
   <si>
-    <t xml:space="preserve">82XX S. Avalon Ave. </t>
+    <t xml:space="preserve">8200 S Avalon Ave. Chicago, IL 60619</t>
   </si>
   <si>
     <t xml:space="preserve">82XX S. Kingston Ave.</t>
   </si>
   <si>
+    <t xml:space="preserve">8201 S Avalon Ave. Chicago, IL 60619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8202 S Avalon Ave. Chicago, IL 60619</t>
+  </si>
+  <si>
     <t xml:space="preserve">83XX S HOYNE AVE</t>
   </si>
   <si>
@@ -1481,7 +1526,7 @@
     <t xml:space="preserve">89XX S. Hamilton Ave.ˆ</t>
   </si>
   <si>
-    <t xml:space="preserve">90XX S. Hamilton Ave. </t>
+    <t xml:space="preserve">9000 S Hamilton Ave. Chicago, IL 60643</t>
   </si>
   <si>
     <t xml:space="preserve">91XX S. Hamilton Ave.</t>
@@ -1490,13 +1535,10 @@
     <t xml:space="preserve">91XX S DREXEL AVE</t>
   </si>
   <si>
-    <t xml:space="preserve">9XX N. Lavergne Ave. </t>
+    <t xml:space="preserve">900 N Lavergne Ave. Chicago, IL 60651</t>
   </si>
   <si>
     <t xml:space="preserve">9XX N LEAMINGTON AVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">900 N. Lavergne Ave. </t>
   </si>
   <si>
     <t xml:space="preserve">9500 S INDIANA AVE</t>
@@ -1818,6 +1860,15 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">50XX N WINCHESTER AVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53XX N. Bernard St.**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57XX W. Race Ave.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1838,6 +1889,9 @@
       </rPr>
       <t xml:space="preserve">Site 3</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">67XX N. Jean Ave.</t>
   </si>
   <si>
     <t xml:space="preserve">89XX S. Hamilton Ave.</t>
@@ -2948,8 +3002,8 @@
   </sheetPr>
   <dimension ref="1:851"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A720" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B730" activeCellId="0" sqref="B730"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A759" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B780" activeCellId="0" sqref="B780"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -18312,7 +18366,7 @@
         <v>42976</v>
       </c>
       <c r="B586" s="26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C586" s="26"/>
       <c r="D586" s="26"/>
@@ -18336,7 +18390,7 @@
         <v>43031</v>
       </c>
       <c r="B587" s="23" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C587" s="23"/>
       <c r="D587" s="23"/>
@@ -18360,7 +18414,7 @@
         <v>42830</v>
       </c>
       <c r="B588" s="26" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C588" s="26"/>
       <c r="D588" s="26"/>
@@ -18384,7 +18438,7 @@
         <v>42843</v>
       </c>
       <c r="B589" s="26" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C589" s="26"/>
       <c r="D589" s="26"/>
@@ -18408,7 +18462,7 @@
         <v>43028</v>
       </c>
       <c r="B590" s="23" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C590" s="23"/>
       <c r="D590" s="23"/>
@@ -18432,7 +18486,7 @@
         <v>42856</v>
       </c>
       <c r="B591" s="26" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C591" s="26"/>
       <c r="D591" s="26"/>
@@ -18458,7 +18512,7 @@
         <v>43028</v>
       </c>
       <c r="B592" s="26" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C592" s="16" t="s">
         <v>34</v>
@@ -18607,7 +18661,7 @@
       <c r="A598" s="34" t="n">
         <v>42865</v>
       </c>
-      <c r="B598" s="26" t="s">
+      <c r="B598" s="38" t="s">
         <v>380</v>
       </c>
       <c r="C598" s="26"/>
@@ -18895,8 +18949,8 @@
       <c r="A610" s="22" t="n">
         <v>43011</v>
       </c>
-      <c r="B610" s="26" t="s">
-        <v>386</v>
+      <c r="B610" s="38" t="s">
+        <v>387</v>
       </c>
       <c r="C610" s="16" t="s">
         <v>42</v>
@@ -18922,7 +18976,7 @@
         <v>42611</v>
       </c>
       <c r="B611" s="26" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C611" s="16" t="s">
         <v>34</v>
@@ -18948,7 +19002,7 @@
         <v>42613</v>
       </c>
       <c r="B612" s="26" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C612" s="16" t="s">
         <v>42</v>
@@ -18974,7 +19028,7 @@
         <v>42705</v>
       </c>
       <c r="B613" s="26" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C613" s="16" t="s">
         <v>42</v>
@@ -19000,7 +19054,7 @@
         <v>42612</v>
       </c>
       <c r="B614" s="26" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C614" s="16" t="s">
         <v>51</v>
@@ -19028,7 +19082,7 @@
         <v>42612</v>
       </c>
       <c r="B615" s="26" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C615" s="16" t="s">
         <v>99</v>
@@ -19054,7 +19108,7 @@
         <v>42810</v>
       </c>
       <c r="B616" s="26" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C616" s="26"/>
       <c r="D616" s="26"/>
@@ -19080,7 +19134,7 @@
         <v>42832</v>
       </c>
       <c r="B617" s="26" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C617" s="26"/>
       <c r="D617" s="26"/>
@@ -19102,7 +19156,7 @@
         <v>42854</v>
       </c>
       <c r="B618" s="26" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C618" s="26"/>
       <c r="D618" s="26"/>
@@ -19120,7 +19174,7 @@
         <v>42931</v>
       </c>
       <c r="B619" s="26" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C619" s="26"/>
       <c r="D619" s="26"/>
@@ -19138,7 +19192,7 @@
         <v>42611</v>
       </c>
       <c r="B620" s="26" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C620" s="16" t="s">
         <v>34</v>
@@ -19163,8 +19217,8 @@
       <c r="A621" s="34" t="n">
         <v>42705</v>
       </c>
-      <c r="B621" s="26" t="s">
-        <v>389</v>
+      <c r="B621" s="38" t="s">
+        <v>393</v>
       </c>
       <c r="C621" s="16" t="s">
         <v>34</v>
@@ -19189,8 +19243,8 @@
       <c r="A622" s="34" t="n">
         <v>42613</v>
       </c>
-      <c r="B622" s="26" t="s">
-        <v>389</v>
+      <c r="B622" s="38" t="s">
+        <v>394</v>
       </c>
       <c r="C622" s="16" t="s">
         <v>42</v>
@@ -19215,8 +19269,8 @@
       <c r="A623" s="34" t="n">
         <v>42718</v>
       </c>
-      <c r="B623" s="26" t="s">
-        <v>389</v>
+      <c r="B623" s="38" t="s">
+        <v>394</v>
       </c>
       <c r="C623" s="16" t="s">
         <v>42</v>
@@ -19242,7 +19296,7 @@
         <v>43048</v>
       </c>
       <c r="B624" s="23" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C624" s="23"/>
       <c r="D624" s="23"/>
@@ -19266,7 +19320,7 @@
         <v>43076</v>
       </c>
       <c r="B625" s="23" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C625" s="23"/>
       <c r="D625" s="23"/>
@@ -19289,8 +19343,8 @@
       <c r="A626" s="34" t="n">
         <v>42612</v>
       </c>
-      <c r="B626" s="26" t="s">
-        <v>389</v>
+      <c r="B626" s="38" t="s">
+        <v>396</v>
       </c>
       <c r="C626" s="16" t="s">
         <v>51</v>
@@ -19315,8 +19369,8 @@
       <c r="A627" s="34" t="n">
         <v>42705</v>
       </c>
-      <c r="B627" s="26" t="s">
-        <v>389</v>
+      <c r="B627" s="38" t="s">
+        <v>396</v>
       </c>
       <c r="C627" s="16" t="s">
         <v>51</v>
@@ -19342,7 +19396,7 @@
         <v>42998</v>
       </c>
       <c r="B628" s="26" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C628" s="26"/>
       <c r="D628" s="26"/>
@@ -19366,7 +19420,7 @@
         <v>43021</v>
       </c>
       <c r="B629" s="26" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C629" s="26"/>
       <c r="D629" s="26"/>
@@ -19390,7 +19444,7 @@
         <v>43077</v>
       </c>
       <c r="B630" s="26" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C630" s="26"/>
       <c r="D630" s="26"/>
@@ -19414,7 +19468,7 @@
         <v>43021</v>
       </c>
       <c r="B631" s="26" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C631" s="26"/>
       <c r="D631" s="26"/>
@@ -19437,8 +19491,8 @@
       <c r="A632" s="34" t="n">
         <v>42612</v>
       </c>
-      <c r="B632" s="26" t="s">
-        <v>389</v>
+      <c r="B632" s="38" t="s">
+        <v>399</v>
       </c>
       <c r="C632" s="16" t="s">
         <v>99</v>
@@ -19464,7 +19518,7 @@
         <v>42706</v>
       </c>
       <c r="B633" s="26" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C633" s="16" t="s">
         <v>99</v>
@@ -19480,10 +19534,10 @@
         <v>153</v>
       </c>
       <c r="H633" s="14" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="I633" s="35" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="J633" s="35"/>
     </row>
@@ -19492,7 +19546,7 @@
         <v>43040</v>
       </c>
       <c r="B634" s="23" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C634" s="23"/>
       <c r="D634" s="23"/>
@@ -19516,7 +19570,7 @@
         <v>43047</v>
       </c>
       <c r="B635" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C635" s="25" t="s">
         <v>34</v>
@@ -19542,7 +19596,7 @@
         <v>42613</v>
       </c>
       <c r="B636" s="26" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C636" s="16" t="s">
         <v>34</v>
@@ -19568,7 +19622,7 @@
         <v>42706</v>
       </c>
       <c r="B637" s="26" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C637" s="16" t="s">
         <v>34</v>
@@ -19594,7 +19648,7 @@
         <v>42612</v>
       </c>
       <c r="B638" s="26" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C638" s="16" t="s">
         <v>42</v>
@@ -19620,7 +19674,7 @@
         <v>42706</v>
       </c>
       <c r="B639" s="26" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="C639" s="16" t="s">
         <v>42</v>
@@ -19646,7 +19700,7 @@
         <v>43018</v>
       </c>
       <c r="B640" s="26" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C640" s="26"/>
       <c r="D640" s="26"/>
@@ -19670,7 +19724,7 @@
         <v>43031</v>
       </c>
       <c r="B641" s="26" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C641" s="26"/>
       <c r="D641" s="26"/>
@@ -19694,7 +19748,7 @@
         <v>42902</v>
       </c>
       <c r="B642" s="26" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C642" s="16" t="s">
         <v>42</v>
@@ -19720,7 +19774,7 @@
         <v>43047</v>
       </c>
       <c r="B643" s="23" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C643" s="25" t="s">
         <v>42</v>
@@ -19748,7 +19802,7 @@
         <v>42611</v>
       </c>
       <c r="B644" s="26" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="C644" s="16" t="s">
         <v>51</v>
@@ -19774,7 +19828,7 @@
         <v>42705</v>
       </c>
       <c r="B645" s="26" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="C645" s="16" t="s">
         <v>51</v>
@@ -19800,7 +19854,7 @@
         <v>42767</v>
       </c>
       <c r="B646" s="26" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="C646" s="16" t="s">
         <v>51</v>
@@ -19828,7 +19882,7 @@
         <v>42795</v>
       </c>
       <c r="B647" s="26" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="C647" s="16" t="s">
         <v>51</v>
@@ -19854,7 +19908,7 @@
         <v>42830</v>
       </c>
       <c r="B648" s="26" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="C648" s="16" t="s">
         <v>51</v>
@@ -19882,7 +19936,7 @@
         <v>42858</v>
       </c>
       <c r="B649" s="26" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="C649" s="16" t="s">
         <v>51</v>
@@ -19908,7 +19962,7 @@
         <v>42893</v>
       </c>
       <c r="B650" s="26" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="C650" s="16" t="s">
         <v>51</v>
@@ -19934,7 +19988,7 @@
         <v>42894</v>
       </c>
       <c r="B651" s="26" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C651" s="26"/>
       <c r="D651" s="26"/>
@@ -19958,7 +20012,7 @@
         <v>42612</v>
       </c>
       <c r="B652" s="26" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="C652" s="16" t="s">
         <v>99</v>
@@ -19984,7 +20038,7 @@
         <v>42710</v>
       </c>
       <c r="B653" s="26" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="C653" s="16" t="s">
         <v>99</v>
@@ -20010,7 +20064,7 @@
         <v>43040</v>
       </c>
       <c r="B654" s="23" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="C654" s="23"/>
       <c r="D654" s="23"/>
@@ -20034,7 +20088,7 @@
         <v>42613</v>
       </c>
       <c r="B655" s="26" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="C655" s="16" t="s">
         <v>100</v>
@@ -20060,7 +20114,7 @@
         <v>42893</v>
       </c>
       <c r="B656" s="26" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C656" s="16" t="s">
         <v>34</v>
@@ -20086,7 +20140,7 @@
         <v>42948</v>
       </c>
       <c r="B657" s="39" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="C657" s="41" t="s">
         <v>34</v>
@@ -20112,7 +20166,7 @@
         <v>42948</v>
       </c>
       <c r="B658" s="39" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="C658" s="41" t="s">
         <v>42</v>
@@ -20138,7 +20192,7 @@
         <v>42949</v>
       </c>
       <c r="B659" s="39" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="C659" s="41" t="s">
         <v>51</v>
@@ -20164,7 +20218,7 @@
         <v>42949</v>
       </c>
       <c r="B660" s="39" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="C660" s="41" t="s">
         <v>99</v>
@@ -20190,7 +20244,7 @@
         <v>42948</v>
       </c>
       <c r="B661" s="39" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="C661" s="41" t="s">
         <v>34</v>
@@ -20215,8 +20269,8 @@
       <c r="A662" s="22" t="n">
         <v>42996</v>
       </c>
-      <c r="B662" s="26" t="s">
-        <v>408</v>
+      <c r="B662" s="39" t="s">
+        <v>419</v>
       </c>
       <c r="C662" s="16" t="s">
         <v>51</v>
@@ -20244,7 +20298,7 @@
         <v>42948</v>
       </c>
       <c r="B663" s="39" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="C663" s="41" t="s">
         <v>42</v>
@@ -20272,7 +20326,7 @@
         <v>42978</v>
       </c>
       <c r="B664" s="26" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="C664" s="26"/>
       <c r="D664" s="26"/>
@@ -20298,7 +20352,7 @@
         <v>42972</v>
       </c>
       <c r="B665" s="39" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="C665" s="39"/>
       <c r="D665" s="39"/>
@@ -20322,7 +20376,7 @@
         <v>42972</v>
       </c>
       <c r="B666" s="39" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="C666" s="39"/>
       <c r="D666" s="39"/>
@@ -20346,7 +20400,7 @@
         <v>43000</v>
       </c>
       <c r="B667" s="39" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="C667" s="39"/>
       <c r="D667" s="39"/>
@@ -20370,7 +20424,7 @@
         <v>42844</v>
       </c>
       <c r="B668" s="26" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C668" s="16" t="s">
         <v>34</v>
@@ -20396,7 +20450,7 @@
         <v>43083</v>
       </c>
       <c r="B669" s="26" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="C669" s="16" t="s">
         <v>34</v>
@@ -20424,7 +20478,7 @@
         <v>43082</v>
       </c>
       <c r="B670" s="26" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="C670" s="26"/>
       <c r="D670" s="26"/>
@@ -20450,7 +20504,7 @@
         <v>42851</v>
       </c>
       <c r="B671" s="26" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="C671" s="26"/>
       <c r="D671" s="26"/>
@@ -20474,7 +20528,7 @@
         <v>42872</v>
       </c>
       <c r="B672" s="26" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="C672" s="26"/>
       <c r="D672" s="26"/>
@@ -20492,7 +20546,7 @@
         <v>42844</v>
       </c>
       <c r="B673" s="26" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="C673" s="16" t="s">
         <v>42</v>
@@ -20518,7 +20572,7 @@
         <v>43082</v>
       </c>
       <c r="B674" s="26" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="C674" s="16" t="s">
         <v>42</v>
@@ -20544,7 +20598,7 @@
         <v>43031</v>
       </c>
       <c r="B675" s="23" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="C675" s="23"/>
       <c r="D675" s="23"/>
@@ -20568,7 +20622,7 @@
         <v>42948</v>
       </c>
       <c r="B676" s="39" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="C676" s="39"/>
       <c r="D676" s="39"/>
@@ -20592,7 +20646,7 @@
         <v>42969</v>
       </c>
       <c r="B677" s="39" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="C677" s="39"/>
       <c r="D677" s="39"/>
@@ -20616,7 +20670,7 @@
         <v>42985</v>
       </c>
       <c r="B678" s="39" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="C678" s="39"/>
       <c r="D678" s="39"/>
@@ -20640,7 +20694,7 @@
         <v>43013</v>
       </c>
       <c r="B679" s="39" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="C679" s="39"/>
       <c r="D679" s="39"/>
@@ -20666,7 +20720,7 @@
         <v>43041</v>
       </c>
       <c r="B680" s="39" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="C680" s="39"/>
       <c r="D680" s="39"/>
@@ -20690,7 +20744,7 @@
         <v>43083</v>
       </c>
       <c r="B681" s="39" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="C681" s="39"/>
       <c r="D681" s="39"/>
@@ -20714,7 +20768,7 @@
         <v>42891</v>
       </c>
       <c r="B682" s="26" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="C682" s="26"/>
       <c r="D682" s="26"/>
@@ -20738,7 +20792,7 @@
         <v>42898</v>
       </c>
       <c r="B683" s="26" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="C683" s="16" t="s">
         <v>34</v>
@@ -20764,7 +20818,7 @@
         <v>42752</v>
       </c>
       <c r="B684" s="26" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="C684" s="26"/>
       <c r="D684" s="26"/>
@@ -20790,7 +20844,7 @@
         <v>42775</v>
       </c>
       <c r="B685" s="26" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="C685" s="26"/>
       <c r="D685" s="26"/>
@@ -20814,7 +20868,7 @@
         <v>42892</v>
       </c>
       <c r="B686" s="26" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="C686" s="16" t="s">
         <v>42</v>
@@ -20840,7 +20894,7 @@
         <v>42838</v>
       </c>
       <c r="B687" s="26" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="C687" s="26"/>
       <c r="D687" s="26"/>
@@ -20864,7 +20918,7 @@
         <v>42888</v>
       </c>
       <c r="B688" s="26" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="C688" s="26"/>
       <c r="D688" s="26"/>
@@ -20888,7 +20942,7 @@
         <v>42891</v>
       </c>
       <c r="B689" s="26" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="C689" s="16" t="s">
         <v>51</v>
@@ -20916,7 +20970,7 @@
         <v>42779</v>
       </c>
       <c r="B690" s="26" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="C690" s="26"/>
       <c r="D690" s="26"/>
@@ -20940,7 +20994,7 @@
         <v>42802</v>
       </c>
       <c r="B691" s="26" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="C691" s="26"/>
       <c r="D691" s="26"/>
@@ -20964,7 +21018,7 @@
         <v>42891</v>
       </c>
       <c r="B692" s="26" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="C692" s="16" t="s">
         <v>99</v>
@@ -20990,7 +21044,7 @@
         <v>42891</v>
       </c>
       <c r="B693" s="26" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="C693" s="16" t="s">
         <v>100</v>
@@ -21016,7 +21070,7 @@
         <v>42891</v>
       </c>
       <c r="B694" s="26" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="C694" s="16" t="s">
         <v>103</v>
@@ -21042,7 +21096,7 @@
         <v>42898</v>
       </c>
       <c r="B695" s="26" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="C695" s="26"/>
       <c r="D695" s="26"/>
@@ -21066,7 +21120,7 @@
         <v>42768</v>
       </c>
       <c r="B696" s="26" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="C696" s="26"/>
       <c r="D696" s="26"/>
@@ -21090,7 +21144,7 @@
         <v>42789</v>
       </c>
       <c r="B697" s="26" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="C697" s="26"/>
       <c r="D697" s="26"/>
@@ -21114,7 +21168,7 @@
         <v>43033</v>
       </c>
       <c r="B698" s="26" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="C698" s="26"/>
       <c r="D698" s="26"/>
@@ -21138,7 +21192,7 @@
         <v>43055</v>
       </c>
       <c r="B699" s="26" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="C699" s="26"/>
       <c r="D699" s="26"/>
@@ -21162,7 +21216,7 @@
         <v>43003</v>
       </c>
       <c r="B700" s="26" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="C700" s="26"/>
       <c r="D700" s="26"/>
@@ -21188,7 +21242,7 @@
         <v>43017</v>
       </c>
       <c r="B701" s="26" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="C701" s="26"/>
       <c r="D701" s="26"/>
@@ -21212,7 +21266,7 @@
         <v>42891</v>
       </c>
       <c r="B702" s="26" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="C702" s="26"/>
       <c r="D702" s="26"/>
@@ -21236,7 +21290,7 @@
         <v>42859</v>
       </c>
       <c r="B703" s="26" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="C703" s="26"/>
       <c r="D703" s="26"/>
@@ -21260,7 +21314,7 @@
         <v>42886</v>
       </c>
       <c r="B704" s="26" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="C704" s="26"/>
       <c r="D704" s="26"/>
@@ -21284,7 +21338,7 @@
         <v>42829</v>
       </c>
       <c r="B705" s="26" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="C705" s="16" t="s">
         <v>34</v>
@@ -21310,7 +21364,7 @@
         <v>42914</v>
       </c>
       <c r="B706" s="26" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="C706" s="16" t="s">
         <v>34</v>
@@ -21336,7 +21390,7 @@
         <v>42950</v>
       </c>
       <c r="B707" s="26" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="C707" s="16" t="s">
         <v>34</v>
@@ -21362,7 +21416,7 @@
         <v>42964</v>
       </c>
       <c r="B708" s="26" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="C708" s="16" t="s">
         <v>34</v>
@@ -21388,7 +21442,7 @@
         <v>43005</v>
       </c>
       <c r="B709" s="26" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="C709" s="16" t="s">
         <v>34</v>
@@ -21414,7 +21468,7 @@
         <v>43038</v>
       </c>
       <c r="B710" s="26" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="C710" s="16" t="s">
         <v>34</v>
@@ -21440,7 +21494,7 @@
         <v>43074</v>
       </c>
       <c r="B711" s="26" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="C711" s="16" t="s">
         <v>34</v>
@@ -21466,7 +21520,7 @@
         <v>42830</v>
       </c>
       <c r="B712" s="26" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="C712" s="16" t="s">
         <v>42</v>
@@ -21492,7 +21546,7 @@
         <v>42913</v>
       </c>
       <c r="B713" s="26" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="C713" s="16" t="s">
         <v>42</v>
@@ -21518,7 +21572,7 @@
         <v>42936</v>
       </c>
       <c r="B714" s="26" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="C714" s="16" t="s">
         <v>42</v>
@@ -21544,7 +21598,7 @@
         <v>42972</v>
       </c>
       <c r="B715" s="26" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="C715" s="16" t="s">
         <v>42</v>
@@ -21570,7 +21624,7 @@
         <v>43006</v>
       </c>
       <c r="B716" s="26" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="C716" s="16" t="s">
         <v>42</v>
@@ -21596,7 +21650,7 @@
         <v>43032</v>
       </c>
       <c r="B717" s="26" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="C717" s="16" t="s">
         <v>42</v>
@@ -21622,7 +21676,7 @@
         <v>43055</v>
       </c>
       <c r="B718" s="26" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="C718" s="16" t="s">
         <v>42</v>
@@ -21650,7 +21704,7 @@
         <v>42836</v>
       </c>
       <c r="B719" s="26" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="C719" s="26"/>
       <c r="D719" s="26"/>
@@ -21674,7 +21728,7 @@
         <v>42915</v>
       </c>
       <c r="B720" s="26" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="C720" s="26"/>
       <c r="D720" s="26"/>
@@ -21698,7 +21752,7 @@
         <v>42886</v>
       </c>
       <c r="B721" s="26" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="C721" s="26"/>
       <c r="D721" s="26"/>
@@ -21722,7 +21776,7 @@
         <v>42894</v>
       </c>
       <c r="B722" s="26" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="C722" s="26"/>
       <c r="D722" s="26"/>
@@ -21746,7 +21800,7 @@
         <v>43042</v>
       </c>
       <c r="B723" s="23" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="C723" s="23"/>
       <c r="D723" s="23"/>
@@ -21770,7 +21824,7 @@
         <v>42830</v>
       </c>
       <c r="B724" s="26" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="C724" s="16" t="s">
         <v>34</v>
@@ -21798,7 +21852,7 @@
         <v>42914</v>
       </c>
       <c r="B725" s="26" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="C725" s="16" t="s">
         <v>34</v>
@@ -21824,7 +21878,7 @@
         <v>42842</v>
       </c>
       <c r="B726" s="26" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="C726" s="26"/>
       <c r="D726" s="26"/>
@@ -21848,7 +21902,7 @@
         <v>42844</v>
       </c>
       <c r="B727" s="26" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="C727" s="26"/>
       <c r="D727" s="26"/>
@@ -21872,7 +21926,7 @@
         <v>42969</v>
       </c>
       <c r="B728" s="26" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="C728" s="26"/>
       <c r="D728" s="26"/>
@@ -21896,7 +21950,7 @@
         <v>43004</v>
       </c>
       <c r="B729" s="26" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="C729" s="26"/>
       <c r="D729" s="26"/>
@@ -21922,7 +21976,7 @@
         <v>43025</v>
       </c>
       <c r="B730" s="26" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="C730" s="26"/>
       <c r="D730" s="26"/>
@@ -21946,7 +22000,7 @@
         <v>43056</v>
       </c>
       <c r="B731" s="26" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="C731" s="26"/>
       <c r="D731" s="26"/>
@@ -21970,7 +22024,7 @@
         <v>43088</v>
       </c>
       <c r="B732" s="26" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="C732" s="26"/>
       <c r="D732" s="26"/>
@@ -21994,7 +22048,7 @@
         <v>42836</v>
       </c>
       <c r="B733" s="26" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="C733" s="16" t="s">
         <v>42</v>
@@ -22020,7 +22074,7 @@
         <v>42908</v>
       </c>
       <c r="B734" s="26" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="C734" s="16" t="s">
         <v>42</v>
@@ -22046,7 +22100,7 @@
         <v>42831</v>
       </c>
       <c r="B735" s="26" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="C735" s="16" t="s">
         <v>51</v>
@@ -22072,7 +22126,7 @@
         <v>42913</v>
       </c>
       <c r="B736" s="26" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="C736" s="16" t="s">
         <v>51</v>
@@ -22098,7 +22152,7 @@
         <v>42831</v>
       </c>
       <c r="B737" s="26" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="C737" s="16" t="s">
         <v>34</v>
@@ -22124,7 +22178,7 @@
         <v>42908</v>
       </c>
       <c r="B738" s="26" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="C738" s="16" t="s">
         <v>34</v>
@@ -22150,7 +22204,7 @@
         <v>42830</v>
       </c>
       <c r="B739" s="26" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="C739" s="16" t="s">
         <v>42</v>
@@ -22176,7 +22230,7 @@
         <v>42913</v>
       </c>
       <c r="B740" s="26" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="C740" s="16" t="s">
         <v>42</v>
@@ -22202,7 +22256,7 @@
         <v>43005</v>
       </c>
       <c r="B741" s="26" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="C741" s="16" t="s">
         <v>51</v>
@@ -22228,7 +22282,7 @@
         <v>43032</v>
       </c>
       <c r="B742" s="26" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="C742" s="16" t="s">
         <v>51</v>
@@ -22254,7 +22308,7 @@
         <v>43055</v>
       </c>
       <c r="B743" s="26" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="C743" s="16" t="s">
         <v>51</v>
@@ -22280,7 +22334,7 @@
         <v>42831</v>
       </c>
       <c r="B744" s="26" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="C744" s="16" t="s">
         <v>51</v>
@@ -22306,7 +22360,7 @@
         <v>42908</v>
       </c>
       <c r="B745" s="26" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="C745" s="16" t="s">
         <v>51</v>
@@ -22332,7 +22386,7 @@
         <v>42936</v>
       </c>
       <c r="B746" s="26" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="C746" s="16" t="s">
         <v>51</v>
@@ -22345,7 +22399,7 @@
         <v>181</v>
       </c>
       <c r="G746" s="14" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="H746" s="14" t="s">
         <v>35</v>
@@ -22358,7 +22412,7 @@
         <v>42972</v>
       </c>
       <c r="B747" s="26" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="C747" s="16" t="s">
         <v>51</v>
@@ -22384,7 +22438,7 @@
         <v>43007</v>
       </c>
       <c r="B748" s="26" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="C748" s="16" t="s">
         <v>51</v>
@@ -22404,7 +22458,7 @@
         <v>42830</v>
       </c>
       <c r="B749" s="26" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="C749" s="16" t="s">
         <v>99</v>
@@ -22430,7 +22484,7 @@
         <v>42914</v>
       </c>
       <c r="B750" s="26" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="C750" s="16" t="s">
         <v>99</v>
@@ -22456,7 +22510,7 @@
         <v>42944</v>
       </c>
       <c r="B751" s="26" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="C751" s="16" t="s">
         <v>99</v>
@@ -22482,7 +22536,7 @@
         <v>42965</v>
       </c>
       <c r="B752" s="26" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="C752" s="16" t="s">
         <v>99</v>
@@ -22508,7 +22562,7 @@
         <v>43005</v>
       </c>
       <c r="B753" s="26" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="C753" s="16" t="s">
         <v>99</v>
@@ -22534,7 +22588,7 @@
         <v>43032</v>
       </c>
       <c r="B754" s="26" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="C754" s="16" t="s">
         <v>99</v>
@@ -22560,7 +22614,7 @@
         <v>43055</v>
       </c>
       <c r="B755" s="26" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="C755" s="16" t="s">
         <v>99</v>
@@ -22586,7 +22640,7 @@
         <v>42829</v>
       </c>
       <c r="B756" s="26" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="C756" s="16" t="s">
         <v>100</v>
@@ -22612,7 +22666,7 @@
         <v>42913</v>
       </c>
       <c r="B757" s="26" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="C757" s="16" t="s">
         <v>100</v>
@@ -22638,7 +22692,7 @@
         <v>43007</v>
       </c>
       <c r="B758" s="26" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="C758" s="26"/>
       <c r="D758" s="26"/>
@@ -22662,7 +22716,7 @@
         <v>43042</v>
       </c>
       <c r="B759" s="26" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="C759" s="26"/>
       <c r="D759" s="26"/>
@@ -22686,7 +22740,7 @@
         <v>42752</v>
       </c>
       <c r="B760" s="26" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="C760" s="26"/>
       <c r="D760" s="26"/>
@@ -22710,7 +22764,7 @@
         <v>42779</v>
       </c>
       <c r="B761" s="26" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="C761" s="26"/>
       <c r="D761" s="26"/>
@@ -22734,7 +22788,7 @@
         <v>42774</v>
       </c>
       <c r="B762" s="26" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C762" s="26"/>
       <c r="D762" s="26"/>
@@ -22758,7 +22812,7 @@
         <v>42871</v>
       </c>
       <c r="B763" s="26" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C763" s="26"/>
       <c r="D763" s="26"/>
@@ -22782,7 +22836,7 @@
         <v>42895</v>
       </c>
       <c r="B764" s="26" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C764" s="26"/>
       <c r="D764" s="26"/>
@@ -22800,7 +22854,7 @@
         <v>42899</v>
       </c>
       <c r="B765" s="26" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C765" s="26"/>
       <c r="D765" s="26"/>
@@ -22824,7 +22878,7 @@
         <v>42934</v>
       </c>
       <c r="B766" s="26" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C766" s="26"/>
       <c r="D766" s="26"/>
@@ -22848,7 +22902,7 @@
         <v>42965</v>
       </c>
       <c r="B767" s="26" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C767" s="26"/>
       <c r="D767" s="26"/>
@@ -22872,7 +22926,7 @@
         <v>42998</v>
       </c>
       <c r="B768" s="26" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C768" s="26"/>
       <c r="D768" s="26"/>
@@ -22896,7 +22950,7 @@
         <v>43021</v>
       </c>
       <c r="B769" s="26" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C769" s="26"/>
       <c r="D769" s="26"/>
@@ -22920,7 +22974,7 @@
         <v>42944</v>
       </c>
       <c r="B770" s="39" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="C770" s="39"/>
       <c r="D770" s="39"/>
@@ -22944,7 +22998,7 @@
         <v>42669</v>
       </c>
       <c r="B771" s="26" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="C771" s="26"/>
       <c r="D771" s="26"/>
@@ -22970,7 +23024,7 @@
         <v>42836</v>
       </c>
       <c r="B772" s="26" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="C772" s="16" t="s">
         <v>34</v>
@@ -22996,7 +23050,7 @@
         <v>42986</v>
       </c>
       <c r="B773" s="26" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="C773" s="16" t="s">
         <v>34</v>
@@ -23022,7 +23076,7 @@
         <v>42836</v>
       </c>
       <c r="B774" s="26" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="C774" s="16" t="s">
         <v>42</v>
@@ -23048,7 +23102,7 @@
         <v>42986</v>
       </c>
       <c r="B775" s="26" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="C775" s="16" t="s">
         <v>42</v>
@@ -23076,7 +23130,7 @@
         <v>42886</v>
       </c>
       <c r="B776" s="26" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="C776" s="26"/>
       <c r="D776" s="26"/>
@@ -23100,7 +23154,7 @@
         <v>42836</v>
       </c>
       <c r="B777" s="26" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="C777" s="16" t="s">
         <v>51</v>
@@ -23126,7 +23180,7 @@
         <v>42986</v>
       </c>
       <c r="B778" s="26" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="C778" s="16" t="s">
         <v>51</v>
@@ -23152,7 +23206,7 @@
         <v>42992</v>
       </c>
       <c r="B779" s="26" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="C779" s="26"/>
       <c r="D779" s="26"/>
@@ -23176,7 +23230,7 @@
         <v>43020</v>
       </c>
       <c r="B780" s="26" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="C780" s="26"/>
       <c r="D780" s="26"/>
@@ -23200,7 +23254,7 @@
         <v>42628</v>
       </c>
       <c r="B781" s="26" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="C781" s="26"/>
       <c r="D781" s="26"/>
@@ -23224,7 +23278,7 @@
         <v>42725</v>
       </c>
       <c r="B782" s="26" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="C782" s="26"/>
       <c r="D782" s="26"/>
@@ -23248,7 +23302,7 @@
         <v>43025</v>
       </c>
       <c r="B783" s="26" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="C783" s="26"/>
       <c r="D783" s="26"/>
@@ -23272,7 +23326,7 @@
         <v>43046</v>
       </c>
       <c r="B784" s="26" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="C784" s="26"/>
       <c r="D784" s="26"/>
@@ -23286,10 +23340,10 @@
         <v>135</v>
       </c>
       <c r="H784" s="24" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="I784" s="24" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="J784" s="24"/>
     </row>
@@ -23298,7 +23352,7 @@
         <v>42886</v>
       </c>
       <c r="B785" s="26" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="C785" s="26"/>
       <c r="D785" s="26"/>
@@ -23322,7 +23376,7 @@
         <v>43039</v>
       </c>
       <c r="B786" s="26" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="C786" s="26"/>
       <c r="D786" s="26"/>
@@ -23348,7 +23402,7 @@
         <v>42850</v>
       </c>
       <c r="B787" s="26" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="C787" s="26"/>
       <c r="D787" s="26"/>
@@ -23372,7 +23426,7 @@
         <v>42838</v>
       </c>
       <c r="B788" s="26" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="C788" s="16" t="s">
         <v>34</v>
@@ -23398,7 +23452,7 @@
         <v>42836</v>
       </c>
       <c r="B789" s="26" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="C789" s="16" t="s">
         <v>42</v>
@@ -23426,7 +23480,7 @@
         <v>42986</v>
       </c>
       <c r="B790" s="26" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="C790" s="16" t="s">
         <v>42</v>
@@ -23452,7 +23506,7 @@
         <v>42886</v>
       </c>
       <c r="B791" s="26" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="C791" s="16" t="s">
         <v>34</v>
@@ -23478,7 +23532,7 @@
         <v>43039</v>
       </c>
       <c r="B792" s="26" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="C792" s="16" t="s">
         <v>34</v>
@@ -23504,7 +23558,7 @@
         <v>43074</v>
       </c>
       <c r="B793" s="26" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="C793" s="16" t="s">
         <v>34</v>
@@ -23530,7 +23584,7 @@
         <v>42887</v>
       </c>
       <c r="B794" s="26" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="C794" s="16" t="s">
         <v>42</v>
@@ -23556,7 +23610,7 @@
         <v>43039</v>
       </c>
       <c r="B795" s="26" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="C795" s="26"/>
       <c r="D795" s="26"/>
@@ -23580,7 +23634,7 @@
         <v>42752</v>
       </c>
       <c r="B796" s="26" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="C796" s="26"/>
       <c r="D796" s="26"/>
@@ -23604,7 +23658,7 @@
         <v>42780</v>
       </c>
       <c r="B797" s="26" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="C797" s="26"/>
       <c r="D797" s="26"/>
@@ -23630,7 +23684,7 @@
         <v>43081</v>
       </c>
       <c r="B798" s="23" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="C798" s="23"/>
       <c r="D798" s="23"/>
@@ -23654,7 +23708,7 @@
         <v>43090</v>
       </c>
       <c r="B799" s="23" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="C799" s="23"/>
       <c r="D799" s="23"/>
@@ -23678,7 +23732,7 @@
         <v>43006</v>
       </c>
       <c r="B800" s="26" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="C800" s="26"/>
       <c r="D800" s="26"/>
@@ -23704,7 +23758,7 @@
         <v>43090</v>
       </c>
       <c r="B801" s="23" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="C801" s="23"/>
       <c r="D801" s="23"/>
@@ -23728,7 +23782,7 @@
         <v>42606</v>
       </c>
       <c r="B802" s="26" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="C802" s="26"/>
       <c r="D802" s="26"/>
@@ -23752,7 +23806,7 @@
         <v>42720</v>
       </c>
       <c r="B803" s="26" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="C803" s="26"/>
       <c r="D803" s="26"/>
@@ -23776,7 +23830,7 @@
         <v>42766</v>
       </c>
       <c r="B804" s="26" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="C804" s="26"/>
       <c r="D804" s="26"/>
@@ -23800,7 +23854,7 @@
         <v>42787</v>
       </c>
       <c r="B805" s="26" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="C805" s="26"/>
       <c r="D805" s="26"/>
@@ -23824,7 +23878,7 @@
         <v>42815</v>
       </c>
       <c r="B806" s="26" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="C806" s="26"/>
       <c r="D806" s="26"/>
@@ -23848,7 +23902,7 @@
         <v>42843</v>
       </c>
       <c r="B807" s="26" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="C807" s="26"/>
       <c r="D807" s="26"/>
@@ -23872,7 +23926,7 @@
         <v>42871</v>
       </c>
       <c r="B808" s="26" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="C808" s="26"/>
       <c r="D808" s="26"/>
@@ -23896,7 +23950,7 @@
         <v>42768</v>
       </c>
       <c r="B809" s="26" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="C809" s="26"/>
       <c r="D809" s="26"/>
@@ -23920,7 +23974,7 @@
         <v>42789</v>
       </c>
       <c r="B810" s="26" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="C810" s="26"/>
       <c r="D810" s="26"/>
@@ -23944,7 +23998,7 @@
         <v>42607</v>
       </c>
       <c r="B811" s="26" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="C811" s="26"/>
       <c r="D811" s="26"/>
@@ -23968,7 +24022,7 @@
         <v>42719</v>
       </c>
       <c r="B812" s="26" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="C812" s="26"/>
       <c r="D812" s="26"/>
@@ -23992,7 +24046,7 @@
         <v>42607</v>
       </c>
       <c r="B813" s="26" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="C813" s="16" t="s">
         <v>34</v>
@@ -24018,7 +24072,7 @@
         <v>42719</v>
       </c>
       <c r="B814" s="26" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="C814" s="16" t="s">
         <v>34</v>
@@ -24044,7 +24098,7 @@
         <v>42829</v>
       </c>
       <c r="B815" s="26" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="C815" s="26"/>
       <c r="D815" s="26"/>
@@ -24068,7 +24122,7 @@
         <v>42843</v>
       </c>
       <c r="B816" s="26" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="C816" s="26"/>
       <c r="D816" s="26"/>
@@ -24094,7 +24148,7 @@
         <v>42860</v>
       </c>
       <c r="B817" s="26" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="C817" s="26"/>
       <c r="D817" s="26"/>
@@ -24112,7 +24166,7 @@
         <v>42948</v>
       </c>
       <c r="B818" s="26" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="C818" s="26"/>
       <c r="D818" s="26"/>
@@ -24130,7 +24184,7 @@
         <v>42606</v>
       </c>
       <c r="B819" s="26" t="s">
-        <v>467</v>
+        <v>488</v>
       </c>
       <c r="C819" s="16" t="s">
         <v>42</v>
@@ -24156,7 +24210,7 @@
         <v>42719</v>
       </c>
       <c r="B820" s="26" t="s">
-        <v>467</v>
+        <v>488</v>
       </c>
       <c r="C820" s="16" t="s">
         <v>42</v>
@@ -24182,7 +24236,7 @@
         <v>42607</v>
       </c>
       <c r="B821" s="26" t="s">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="C821" s="16" t="s">
         <v>51</v>
@@ -24208,7 +24262,7 @@
         <v>42720</v>
       </c>
       <c r="B822" s="26" t="s">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="C822" s="16" t="s">
         <v>51</v>
@@ -24234,7 +24288,7 @@
         <v>42766</v>
       </c>
       <c r="B823" s="26" t="s">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="C823" s="16" t="s">
         <v>51</v>
@@ -24260,7 +24314,7 @@
         <v>42787</v>
       </c>
       <c r="B824" s="26" t="s">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="C824" s="16" t="s">
         <v>51</v>
@@ -24286,7 +24340,7 @@
         <v>42815</v>
       </c>
       <c r="B825" s="53" t="s">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="C825" s="54" t="s">
         <v>51</v>
@@ -24312,7 +24366,7 @@
         <v>42843</v>
       </c>
       <c r="B826" s="26" t="s">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="C826" s="16" t="s">
         <v>51</v>
@@ -24338,7 +24392,7 @@
         <v>42871</v>
       </c>
       <c r="B827" s="26" t="s">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="C827" s="16" t="s">
         <v>51</v>
@@ -24364,7 +24418,7 @@
         <v>43018</v>
       </c>
       <c r="B828" s="26" t="s">
-        <v>469</v>
+        <v>490</v>
       </c>
       <c r="C828" s="26"/>
       <c r="D828" s="26"/>
@@ -24388,7 +24442,7 @@
         <v>43032</v>
       </c>
       <c r="B829" s="26" t="s">
-        <v>469</v>
+        <v>490</v>
       </c>
       <c r="C829" s="26"/>
       <c r="D829" s="26"/>
@@ -24412,7 +24466,7 @@
         <v>42858</v>
       </c>
       <c r="B830" s="26" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="C830" s="26"/>
       <c r="D830" s="26"/>
@@ -24436,7 +24490,7 @@
         <v>43007</v>
       </c>
       <c r="B831" s="26" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="C831" s="26"/>
       <c r="D831" s="26"/>
@@ -24460,7 +24514,7 @@
         <v>43042</v>
       </c>
       <c r="B832" s="26" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="C832" s="26"/>
       <c r="D832" s="26"/>
@@ -24484,7 +24538,7 @@
         <v>43069</v>
       </c>
       <c r="B833" s="53" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="C833" s="53"/>
       <c r="D833" s="53"/>
@@ -24508,7 +24562,7 @@
         <v>43081</v>
       </c>
       <c r="B834" s="53" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="C834" s="53"/>
       <c r="D834" s="53"/>
@@ -24532,7 +24586,7 @@
         <v>42943</v>
       </c>
       <c r="B835" s="53" t="s">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="C835" s="53"/>
       <c r="D835" s="53"/>
@@ -24556,7 +24610,7 @@
         <v>42987</v>
       </c>
       <c r="B836" s="53" t="s">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="C836" s="53"/>
       <c r="D836" s="53"/>
@@ -24574,7 +24628,7 @@
         <v>42943</v>
       </c>
       <c r="B837" s="49" t="s">
-        <v>472</v>
+        <v>493</v>
       </c>
       <c r="C837" s="48" t="s">
         <v>34</v>
@@ -24600,7 +24654,7 @@
         <v>42943</v>
       </c>
       <c r="B838" s="49" t="s">
-        <v>472</v>
+        <v>493</v>
       </c>
       <c r="C838" s="48" t="s">
         <v>42</v>
@@ -24626,7 +24680,7 @@
         <v>42943</v>
       </c>
       <c r="B839" s="49" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="C839" s="49"/>
       <c r="D839" s="49"/>
@@ -24650,7 +24704,7 @@
         <v>43013</v>
       </c>
       <c r="B840" s="26" t="s">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="C840" s="26"/>
       <c r="D840" s="26"/>
@@ -24674,7 +24728,7 @@
         <v>42856</v>
       </c>
       <c r="B841" s="23" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="C841" s="25" t="s">
         <v>34</v>
@@ -24700,7 +24754,7 @@
         <v>43007</v>
       </c>
       <c r="B842" s="23" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="C842" s="25" t="s">
         <v>34</v>
@@ -24726,7 +24780,7 @@
         <v>42993</v>
       </c>
       <c r="B843" s="26" t="s">
-        <v>476</v>
+        <v>497</v>
       </c>
       <c r="C843" s="26"/>
       <c r="D843" s="26"/>
@@ -24750,7 +24804,7 @@
         <v>43077</v>
       </c>
       <c r="B844" s="26" t="s">
-        <v>476</v>
+        <v>497</v>
       </c>
       <c r="C844" s="26"/>
       <c r="D844" s="26"/>
@@ -24774,7 +24828,7 @@
         <v>42849</v>
       </c>
       <c r="B845" s="23" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="C845" s="25" t="s">
         <v>42</v>
@@ -24800,7 +24854,7 @@
         <v>43006</v>
       </c>
       <c r="B846" s="23" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="C846" s="25" t="s">
         <v>42</v>
@@ -24826,7 +24880,7 @@
         <v>43091</v>
       </c>
       <c r="B847" s="59" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="C847" s="59"/>
       <c r="D847" s="59"/>
@@ -24850,7 +24904,7 @@
         <v>43047</v>
       </c>
       <c r="B848" s="59" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="C848" s="59"/>
       <c r="D848" s="59"/>
@@ -24871,7 +24925,7 @@
     </row>
     <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="60" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="B849" s="61"/>
       <c r="C849" s="61"/>
@@ -24882,7 +24936,7 @@
     </row>
     <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="63" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="B850" s="61"/>
       <c r="C850" s="61"/>
@@ -24890,7 +24944,7 @@
     </row>
     <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="64" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="B851" s="64"/>
       <c r="C851" s="63"/>
@@ -25138,11 +25192,11 @@
     </row>
     <row r="2" s="68" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="65" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="B2" s="66"/>
       <c r="C2" s="67" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="D2" s="67"/>
       <c r="E2" s="67"/>
@@ -25154,7 +25208,7 @@
       <c r="K2" s="67"/>
       <c r="L2" s="67"/>
       <c r="M2" s="67" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="N2" s="67"/>
       <c r="O2" s="67"/>
@@ -25172,46 +25226,46 @@
         <v>5</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="E3" s="70" t="s">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="F3" s="70" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="70" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
       <c r="H3" s="70" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="70" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="J3" s="70" t="s">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="K3" s="70" t="s">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="L3" s="70" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="M3" s="70" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="N3" s="70" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="O3" s="70" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="P3" s="70" t="s">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="Q3" s="71" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25219,7 +25273,7 @@
         <v>42651</v>
       </c>
       <c r="B4" s="73" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="C4" s="74" t="n">
         <v>2.19</v>
@@ -25266,7 +25320,7 @@
         <v>42984</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="C5" s="78" t="n">
         <v>57.1</v>
@@ -25313,7 +25367,7 @@
         <v>43050</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="C6" s="80" t="n">
         <v>8.99</v>
@@ -25360,7 +25414,7 @@
         <v>43056</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>501</v>
+        <v>521</v>
       </c>
       <c r="C7" s="45" t="n">
         <v>7.68</v>
@@ -25407,7 +25461,7 @@
         <v>43105</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>502</v>
+        <v>522</v>
       </c>
       <c r="C8" s="84" t="n">
         <v>4.46</v>
@@ -25454,7 +25508,7 @@
         <v>42829</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="C9" s="87" t="n">
         <v>23</v>
@@ -25501,7 +25555,7 @@
         <v>42676</v>
       </c>
       <c r="B10" s="90" t="s">
-        <v>504</v>
+        <v>524</v>
       </c>
       <c r="C10" s="91" t="n">
         <v>5.07</v>
@@ -25548,7 +25602,7 @@
         <v>42951</v>
       </c>
       <c r="B11" s="86" t="s">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="C11" s="84" t="n">
         <v>1.61</v>
@@ -25560,40 +25614,40 @@
         <v>1.65</v>
       </c>
       <c r="F11" s="94" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="G11" s="95" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="H11" s="95" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="I11" s="95" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="J11" s="95" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="K11" s="95" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="L11" s="95" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="M11" s="95" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="N11" s="95" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="O11" s="96" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="P11" s="96" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="Q11" s="96" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25601,7 +25655,7 @@
         <v>42832</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="C12" s="87" t="n">
         <v>10.4</v>
@@ -25654,7 +25708,7 @@
         <v>42797</v>
       </c>
       <c r="B13" s="99" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
       <c r="C13" s="88" t="n">
         <v>4.07</v>
@@ -25701,7 +25755,7 @@
         <v>42949</v>
       </c>
       <c r="B14" s="100" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="C14" s="91" t="n">
         <v>9.55</v>
@@ -25754,7 +25808,7 @@
         <v>42997</v>
       </c>
       <c r="B15" s="100" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="C15" s="102" t="n">
         <v>6.31</v>
@@ -25781,10 +25835,10 @@
         <v>15.6</v>
       </c>
       <c r="K15" s="104" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="L15" s="96" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="M15" s="104" t="n">
         <v>15.2</v>
@@ -25807,7 +25861,7 @@
         <v>42926</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>512</v>
+        <v>532</v>
       </c>
       <c r="C16" s="107" t="n">
         <v>24</v>
@@ -25860,7 +25914,7 @@
         <v>42893</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="C17" s="108" t="n">
         <v>6.19</v>
@@ -25907,7 +25961,7 @@
         <v>42882</v>
       </c>
       <c r="B18" s="110" t="s">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="C18" s="108" t="n">
         <v>5.2</v>
@@ -25954,7 +26008,7 @@
         <v>42882</v>
       </c>
       <c r="B19" s="112" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="C19" s="108" t="n">
         <v>13.9</v>
@@ -26001,7 +26055,7 @@
         <v>42957</v>
       </c>
       <c r="B20" s="110" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="C20" s="74" t="n">
         <v>14.3</v>
@@ -26054,7 +26108,7 @@
         <v>42893</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="C21" s="74" t="n">
         <v>177</v>
@@ -26101,7 +26155,7 @@
         <v>43061</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>517</v>
+        <v>537</v>
       </c>
       <c r="C22" s="78" t="n">
         <v>12.7</v>
@@ -26148,7 +26202,7 @@
         <v>43047</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>518</v>
+        <v>538</v>
       </c>
       <c r="C23" s="45" t="n">
         <v>4.45</v>
@@ -26195,7 +26249,7 @@
         <v>42672</v>
       </c>
       <c r="B24" s="99" t="s">
-        <v>519</v>
+        <v>539</v>
       </c>
       <c r="C24" s="21" t="n">
         <v>16.3</v>
@@ -26242,7 +26296,7 @@
         <v>42994</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="C25" s="45" t="n">
         <v>6.66</v>
@@ -26295,7 +26349,7 @@
         <v>43034</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>382</v>
+        <v>541</v>
       </c>
       <c r="C26" s="45" t="n">
         <v>8.87</v>
@@ -26348,7 +26402,7 @@
         <v>42854</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>388</v>
+        <v>542</v>
       </c>
       <c r="C27" s="91" t="n">
         <v>3.95</v>
@@ -26395,7 +26449,7 @@
         <v>42931</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>388</v>
+        <v>542</v>
       </c>
       <c r="C28" s="74" t="n">
         <v>7.58</v>
@@ -26442,7 +26496,7 @@
         <v>42872</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>413</v>
+        <v>543</v>
       </c>
       <c r="C29" s="74" t="n">
         <v>6.08</v>
@@ -26489,7 +26543,7 @@
         <v>43007</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="C30" s="45" t="n">
         <v>1.73</v>
@@ -26536,7 +26590,7 @@
         <v>42895</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>445</v>
+        <v>545</v>
       </c>
       <c r="C31" s="74" t="n">
         <v>2.56</v>
@@ -26583,7 +26637,7 @@
         <v>42860</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="C32" s="91" t="n">
         <v>5.54</v>
@@ -26630,7 +26684,7 @@
         <v>42948</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="C33" s="21" t="n">
         <v>13.1</v>
@@ -26683,7 +26737,7 @@
         <v>42987</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="C34" s="115" t="n">
         <v>5.12</v>
@@ -26727,7 +26781,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="63" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="B35" s="117"/>
       <c r="C35" s="117"/>

--- a/wq_study_results.xlsx
+++ b/wq_study_results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,8 +16,10 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles" vbProcedure="false">Sequential!$2:$3</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">Initial!$3:$3</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0" vbProcedure="false">Initial!$3:$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0" vbProcedure="false">Initial!$3:$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles" vbProcedure="false">Sequential!$2:$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0" vbProcedure="false">Sequential!$2:$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0" vbProcedure="false">Sequential!$2:$3</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2076,12 +2078,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -2199,7 +2207,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="124">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2460,31 +2468,71 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2584,6 +2632,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2608,6 +2660,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2616,8 +2672,32 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2948,29 +3028,29 @@
   </sheetPr>
   <dimension ref="A1:Q851"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="37.7959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="35.3673469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="37.3928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="34.9642857142857"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="111.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14580,7 +14660,7 @@
       <c r="J443" s="33"/>
       <c r="K443" s="33"/>
     </row>
-    <row r="444" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="32" t="n">
         <v>42957</v>
       </c>
@@ -14601,7 +14681,7 @@
       <c r="J444" s="33"/>
       <c r="K444" s="33"/>
     </row>
-    <row r="445" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="32" t="n">
         <v>43006</v>
       </c>
@@ -14628,7 +14708,7 @@
       <c r="J445" s="33"/>
       <c r="K445" s="33"/>
     </row>
-    <row r="446" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="32" t="n">
         <v>42865</v>
       </c>
@@ -14653,7 +14733,7 @@
       <c r="J446" s="33"/>
       <c r="K446" s="33"/>
     </row>
-    <row r="447" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="32" t="n">
         <v>42970</v>
       </c>
@@ -14678,7 +14758,7 @@
       <c r="J447" s="33"/>
       <c r="K447" s="33"/>
     </row>
-    <row r="448" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="32" t="n">
         <v>42885</v>
       </c>
@@ -14703,7 +14783,7 @@
       <c r="J448" s="33"/>
       <c r="K448" s="33"/>
     </row>
-    <row r="449" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="21" t="n">
         <v>43006</v>
       </c>
@@ -14728,7 +14808,7 @@
       <c r="J449" s="23"/>
       <c r="K449" s="23"/>
     </row>
-    <row r="450" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="21" t="n">
         <v>43038</v>
       </c>
@@ -14753,7 +14833,7 @@
       <c r="J450" s="23"/>
       <c r="K450" s="23"/>
     </row>
-    <row r="451" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="21" t="n">
         <v>43067</v>
       </c>
@@ -14780,7 +14860,7 @@
       </c>
       <c r="K451" s="23"/>
     </row>
-    <row r="452" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="21" t="n">
         <v>43088</v>
       </c>
@@ -14805,7 +14885,7 @@
       <c r="J452" s="23"/>
       <c r="K452" s="23"/>
     </row>
-    <row r="453" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="21" t="n">
         <v>43059</v>
       </c>
@@ -14832,7 +14912,7 @@
       </c>
       <c r="K453" s="23"/>
     </row>
-    <row r="454" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="32" t="n">
         <v>42859</v>
       </c>
@@ -14859,7 +14939,7 @@
       <c r="J454" s="33"/>
       <c r="K454" s="33"/>
     </row>
-    <row r="455" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="32" t="n">
         <v>42893</v>
       </c>
@@ -14880,7 +14960,7 @@
       <c r="J455" s="33"/>
       <c r="K455" s="33"/>
     </row>
-    <row r="456" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="32" t="n">
         <v>43004</v>
       </c>
@@ -14907,7 +14987,7 @@
       <c r="J456" s="33"/>
       <c r="K456" s="33"/>
     </row>
-    <row r="457" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="32" t="n">
         <v>42860</v>
       </c>
@@ -14934,7 +15014,7 @@
       <c r="J457" s="33"/>
       <c r="K457" s="33"/>
     </row>
-    <row r="458" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="21" t="n">
         <v>43000</v>
       </c>
@@ -14961,7 +15041,7 @@
       <c r="J458" s="23"/>
       <c r="K458" s="23"/>
     </row>
-    <row r="459" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="32" t="n">
         <v>42860</v>
       </c>
@@ -14988,7 +15068,7 @@
       <c r="J459" s="33"/>
       <c r="K459" s="33"/>
     </row>
-    <row r="460" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="32" t="n">
         <v>42676</v>
       </c>
@@ -15013,7 +15093,7 @@
       <c r="J460" s="33"/>
       <c r="K460" s="33"/>
     </row>
-    <row r="461" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="32" t="n">
         <v>42811</v>
       </c>
@@ -15038,7 +15118,7 @@
       <c r="J461" s="33"/>
       <c r="K461" s="33"/>
     </row>
-    <row r="462" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="32" t="n">
         <v>42923</v>
       </c>
@@ -15065,7 +15145,7 @@
       <c r="J462" s="33"/>
       <c r="K462" s="33"/>
     </row>
-    <row r="463" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="21" t="n">
         <v>43007</v>
       </c>
@@ -15092,7 +15172,7 @@
       <c r="J463" s="23"/>
       <c r="K463" s="23"/>
     </row>
-    <row r="464" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="21" t="n">
         <v>43028</v>
       </c>
@@ -15119,7 +15199,7 @@
       <c r="J464" s="23"/>
       <c r="K464" s="23"/>
     </row>
-    <row r="465" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="21" t="n">
         <v>43067</v>
       </c>
@@ -15146,7 +15226,7 @@
       <c r="J465" s="23"/>
       <c r="K465" s="23"/>
     </row>
-    <row r="466" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="21" t="n">
         <v>43084</v>
       </c>
@@ -15173,7 +15253,7 @@
       <c r="J466" s="23"/>
       <c r="K466" s="23"/>
     </row>
-    <row r="467" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="32" t="n">
         <v>42922</v>
       </c>
@@ -15200,7 +15280,7 @@
       <c r="J467" s="33"/>
       <c r="K467" s="33"/>
     </row>
-    <row r="468" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="21" t="n">
         <v>43007</v>
       </c>
@@ -15229,7 +15309,7 @@
       </c>
       <c r="K468" s="23"/>
     </row>
-    <row r="469" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="21" t="n">
         <v>43028</v>
       </c>
@@ -15258,7 +15338,7 @@
       </c>
       <c r="K469" s="23"/>
     </row>
-    <row r="470" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="21" t="n">
         <v>43056</v>
       </c>
@@ -25199,137 +25279,137 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>S9="TBS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>S10="TBS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>S7="TBS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>S8="TBS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:E14">
-    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>R14="TBS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:E16">
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>R16="TBS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:E17">
-    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>R17="TBS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C530:E530">
-    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>M532="TBS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B400:E400">
-    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>L394="TBS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B401:E401">
-    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>L395="TBS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B389:E389">
-    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>S385="TBS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:E18">
-    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>R18="TBS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>S11="TBS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B532:E532">
-    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>L534="TBS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B531:E531">
-    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
+    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>L533="TBS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B545:E545">
-    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
+    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
       <formula>I545="TBS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B390:E390">
-    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
+    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
       <formula>S386="TBS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B391:E391">
-    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
+    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
       <formula>S387="TBS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B396:E396">
-    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
+    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
       <formula>L391="TBS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B543:E543">
-    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
+    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
       <formula>I543="TBS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B385:E386">
-    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
+    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
       <formula>S381="TBS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:D7">
-    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>R7="TBS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:D10">
-    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>R10="TBS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:D8">
-    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>R8="TBS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:D11">
-    <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>R11="TBS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B404">
-    <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+    <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
       <formula>L398="TBS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B405">
-    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
       <formula>L399="TBS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25354,25 +25434,24 @@
   </sheetPr>
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R15" activeCellId="0" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="11" min="6" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="true" max="5" min="4" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.1122448979592"/>
+    <col collapsed="false" hidden="true" max="7" min="7" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="true" max="13" min="9" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="true" max="17" min="15" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25471,149 +25550,149 @@
         <v>545</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28" t="n">
+    <row r="4" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="65" t="n">
         <v>42651</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="66" t="s">
         <v>546</v>
       </c>
-      <c r="C4" s="65" t="n">
+      <c r="C4" s="67" t="n">
         <v>2.19</v>
       </c>
-      <c r="D4" s="65" t="n">
+      <c r="D4" s="67" t="n">
         <v>2.26</v>
       </c>
-      <c r="E4" s="65" t="n">
+      <c r="E4" s="67" t="n">
         <v>4.07</v>
       </c>
-      <c r="F4" s="66" t="n">
+      <c r="F4" s="68" t="n">
         <v>3.71</v>
       </c>
-      <c r="G4" s="65" t="n">
+      <c r="G4" s="67" t="n">
         <v>9.38</v>
       </c>
-      <c r="H4" s="65" t="n">
+      <c r="H4" s="67" t="n">
         <v>15.4</v>
       </c>
-      <c r="I4" s="65" t="n">
+      <c r="I4" s="67" t="n">
         <v>11.5</v>
       </c>
-      <c r="J4" s="65" t="n">
+      <c r="J4" s="67" t="n">
         <v>10.5</v>
       </c>
-      <c r="K4" s="65" t="n">
+      <c r="K4" s="67" t="n">
         <v>11.2</v>
       </c>
-      <c r="L4" s="65" t="n">
+      <c r="L4" s="67" t="n">
         <v>10.2</v>
       </c>
-      <c r="M4" s="65" t="n">
+      <c r="M4" s="67" t="n">
         <v>8.35</v>
       </c>
-      <c r="N4" s="67" t="n">
+      <c r="N4" s="69" t="n">
         <v>4.36</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="29"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="n">
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="70"/>
+    </row>
+    <row r="5" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="72" t="n">
         <v>42984</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="73" t="s">
         <v>547</v>
       </c>
-      <c r="C5" s="68" t="n">
+      <c r="C5" s="74" t="n">
         <v>57.1</v>
       </c>
-      <c r="D5" s="31" t="n">
+      <c r="D5" s="75" t="n">
         <v>28.7</v>
       </c>
-      <c r="E5" s="31" t="n">
+      <c r="E5" s="75" t="n">
         <v>25.1</v>
       </c>
-      <c r="F5" s="31" t="n">
+      <c r="F5" s="75" t="n">
         <v>22.1</v>
       </c>
-      <c r="G5" s="31" t="n">
+      <c r="G5" s="75" t="n">
         <v>20.2</v>
       </c>
-      <c r="H5" s="31" t="n">
+      <c r="H5" s="75" t="n">
         <v>18.9</v>
       </c>
-      <c r="I5" s="31" t="n">
+      <c r="I5" s="75" t="n">
         <v>16.8</v>
       </c>
-      <c r="J5" s="31" t="n">
+      <c r="J5" s="75" t="n">
         <v>17.6</v>
       </c>
-      <c r="K5" s="31" t="n">
+      <c r="K5" s="75" t="n">
         <v>15.4</v>
       </c>
-      <c r="L5" s="31" t="n">
+      <c r="L5" s="75" t="n">
         <v>14.1</v>
       </c>
-      <c r="M5" s="29" t="n">
+      <c r="M5" s="70" t="n">
         <v>5.32</v>
       </c>
-      <c r="N5" s="29" t="n">
+      <c r="N5" s="70" t="n">
         <v>4.28</v>
       </c>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="69" t="n">
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+    </row>
+    <row r="6" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="76" t="n">
         <v>43050</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="73" t="s">
         <v>548</v>
       </c>
-      <c r="C6" s="70" t="n">
+      <c r="C6" s="77" t="n">
         <v>8.99</v>
       </c>
-      <c r="D6" s="70" t="n">
+      <c r="D6" s="77" t="n">
         <v>5.63</v>
       </c>
-      <c r="E6" s="70" t="n">
+      <c r="E6" s="77" t="n">
         <v>6.87</v>
       </c>
-      <c r="F6" s="70" t="n">
+      <c r="F6" s="77" t="n">
         <v>23.9</v>
       </c>
-      <c r="G6" s="70" t="n">
+      <c r="G6" s="77" t="n">
         <v>18.1</v>
       </c>
-      <c r="H6" s="71" t="n">
+      <c r="H6" s="78" t="n">
         <v>12.1</v>
       </c>
-      <c r="I6" s="42" t="n">
+      <c r="I6" s="79" t="n">
         <v>17.3</v>
       </c>
-      <c r="J6" s="46" t="n">
+      <c r="J6" s="80" t="n">
         <v>11</v>
       </c>
-      <c r="K6" s="70" t="n">
+      <c r="K6" s="77" t="n">
         <v>8.41</v>
       </c>
-      <c r="L6" s="70" t="n">
+      <c r="L6" s="77" t="n">
         <v>6.96</v>
       </c>
-      <c r="M6" s="70" t="n">
+      <c r="M6" s="77" t="n">
         <v>6.39</v>
       </c>
-      <c r="N6" s="70" t="n">
+      <c r="N6" s="77" t="n">
         <v>5.23</v>
       </c>
-      <c r="O6" s="70"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="42"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="79"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="69" t="n">
+      <c r="A7" s="81" t="n">
         <v>43056</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -25634,7 +25713,7 @@
       <c r="G7" s="39" t="n">
         <v>19.3</v>
       </c>
-      <c r="H7" s="72" t="n">
+      <c r="H7" s="82" t="n">
         <v>20.8</v>
       </c>
       <c r="I7" s="22" t="n">
@@ -25655,51 +25734,51 @@
       <c r="N7" s="39" t="n">
         <v>8.7</v>
       </c>
-      <c r="O7" s="73"/>
-      <c r="P7" s="72"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="82"/>
       <c r="Q7" s="22"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="69" t="n">
+      <c r="A8" s="81" t="n">
         <v>43105</v>
       </c>
       <c r="B8" s="46" t="s">
         <v>550</v>
       </c>
-      <c r="C8" s="74" t="n">
+      <c r="C8" s="84" t="n">
         <v>4.46</v>
       </c>
-      <c r="D8" s="75" t="n">
+      <c r="D8" s="85" t="n">
         <v>2.99</v>
       </c>
-      <c r="E8" s="75" t="n">
+      <c r="E8" s="85" t="n">
         <v>3.48</v>
       </c>
-      <c r="F8" s="75" t="n">
+      <c r="F8" s="85" t="n">
         <v>5.18</v>
       </c>
-      <c r="G8" s="76" t="n">
+      <c r="G8" s="86" t="n">
         <v>4.56</v>
       </c>
-      <c r="H8" s="76" t="n">
+      <c r="H8" s="86" t="n">
         <v>4.52</v>
       </c>
-      <c r="I8" s="76" t="n">
+      <c r="I8" s="86" t="n">
         <v>5.94</v>
       </c>
-      <c r="J8" s="75" t="n">
+      <c r="J8" s="85" t="n">
         <v>6.8</v>
       </c>
-      <c r="K8" s="76" t="n">
+      <c r="K8" s="86" t="n">
         <v>6.71</v>
       </c>
-      <c r="L8" s="76" t="n">
+      <c r="L8" s="86" t="n">
         <v>6.69</v>
       </c>
-      <c r="M8" s="76" t="n">
+      <c r="M8" s="86" t="n">
         <v>2.65</v>
       </c>
-      <c r="N8" s="76" t="n">
+      <c r="N8" s="86" t="n">
         <v>1.74</v>
       </c>
       <c r="O8" s="51"/>
@@ -25713,66 +25792,66 @@
       <c r="B9" s="25" t="s">
         <v>551</v>
       </c>
-      <c r="C9" s="77" t="n">
+      <c r="C9" s="87" t="n">
         <v>23</v>
       </c>
-      <c r="D9" s="78" t="n">
+      <c r="D9" s="88" t="n">
         <v>5.23</v>
       </c>
-      <c r="E9" s="78" t="n">
+      <c r="E9" s="88" t="n">
         <v>4.29</v>
       </c>
-      <c r="F9" s="78" t="n">
+      <c r="F9" s="88" t="n">
         <v>4.56</v>
       </c>
-      <c r="G9" s="78" t="n">
+      <c r="G9" s="88" t="n">
         <v>4.53</v>
       </c>
-      <c r="H9" s="78" t="n">
+      <c r="H9" s="88" t="n">
         <v>3.48</v>
       </c>
-      <c r="I9" s="78" t="n">
+      <c r="I9" s="88" t="n">
         <v>9.66</v>
       </c>
-      <c r="J9" s="78" t="n">
+      <c r="J9" s="88" t="n">
         <v>8.68</v>
       </c>
-      <c r="K9" s="78" t="n">
+      <c r="K9" s="88" t="n">
         <v>8.57</v>
       </c>
-      <c r="L9" s="78" t="n">
+      <c r="L9" s="88" t="n">
         <v>6.81</v>
       </c>
-      <c r="M9" s="78" t="n">
+      <c r="M9" s="88" t="n">
         <v>3.92</v>
       </c>
-      <c r="N9" s="78" t="n">
+      <c r="N9" s="88" t="n">
         <v>3.32</v>
       </c>
       <c r="O9" s="51"/>
       <c r="P9" s="51"/>
-      <c r="Q9" s="79"/>
+      <c r="Q9" s="89"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="28" t="n">
         <v>42676</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="90" t="s">
         <v>552</v>
       </c>
-      <c r="C10" s="81" t="n">
+      <c r="C10" s="91" t="n">
         <v>5.07</v>
       </c>
-      <c r="D10" s="81" t="n">
+      <c r="D10" s="91" t="n">
         <v>5.72</v>
       </c>
-      <c r="E10" s="81" t="n">
+      <c r="E10" s="91" t="n">
         <v>3.06</v>
       </c>
-      <c r="F10" s="81" t="n">
+      <c r="F10" s="91" t="n">
         <v>2.65</v>
       </c>
-      <c r="G10" s="81" t="n">
+      <c r="G10" s="91" t="n">
         <v>6.3</v>
       </c>
       <c r="H10" s="20" t="n">
@@ -25787,13 +25866,13 @@
       <c r="K10" s="20" t="n">
         <v>12.4</v>
       </c>
-      <c r="L10" s="81" t="n">
+      <c r="L10" s="91" t="n">
         <v>5.7</v>
       </c>
-      <c r="M10" s="81" t="n">
+      <c r="M10" s="91" t="n">
         <v>4.22</v>
       </c>
-      <c r="N10" s="81" t="n">
+      <c r="N10" s="91" t="n">
         <v>3.15</v>
       </c>
       <c r="O10" s="14"/>
@@ -25801,108 +25880,108 @@
       <c r="Q10" s="29"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="82" t="n">
+      <c r="A11" s="92" t="n">
         <v>42951</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="86" t="s">
         <v>553</v>
       </c>
-      <c r="C11" s="74" t="n">
+      <c r="C11" s="84" t="n">
         <v>1.61</v>
       </c>
-      <c r="D11" s="83" t="n">
+      <c r="D11" s="93" t="n">
         <v>2.1</v>
       </c>
-      <c r="E11" s="83" t="n">
+      <c r="E11" s="93" t="n">
         <v>1.65</v>
       </c>
-      <c r="F11" s="84" t="s">
+      <c r="F11" s="94" t="s">
         <v>554</v>
       </c>
-      <c r="G11" s="85" t="s">
+      <c r="G11" s="95" t="s">
         <v>554</v>
       </c>
-      <c r="H11" s="85" t="s">
+      <c r="H11" s="95" t="s">
         <v>554</v>
       </c>
-      <c r="I11" s="85" t="s">
+      <c r="I11" s="95" t="s">
         <v>554</v>
       </c>
-      <c r="J11" s="85" t="s">
+      <c r="J11" s="95" t="s">
         <v>554</v>
       </c>
-      <c r="K11" s="85" t="s">
+      <c r="K11" s="95" t="s">
         <v>554</v>
       </c>
-      <c r="L11" s="85" t="s">
+      <c r="L11" s="95" t="s">
         <v>554</v>
       </c>
-      <c r="M11" s="85" t="s">
+      <c r="M11" s="95" t="s">
         <v>554</v>
       </c>
-      <c r="N11" s="85" t="s">
+      <c r="N11" s="95" t="s">
         <v>554</v>
       </c>
-      <c r="O11" s="86" t="s">
+      <c r="O11" s="96" t="s">
         <v>554</v>
       </c>
-      <c r="P11" s="86" t="s">
+      <c r="P11" s="96" t="s">
         <v>554</v>
       </c>
-      <c r="Q11" s="86" t="s">
+      <c r="Q11" s="96" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="87" t="n">
+      <c r="A12" s="97" t="n">
         <v>42832</v>
       </c>
       <c r="B12" s="46" t="s">
         <v>555</v>
       </c>
-      <c r="C12" s="77" t="n">
+      <c r="C12" s="87" t="n">
         <v>10.4</v>
       </c>
-      <c r="D12" s="77" t="n">
+      <c r="D12" s="87" t="n">
         <v>15.6</v>
       </c>
-      <c r="E12" s="77" t="n">
+      <c r="E12" s="87" t="n">
         <v>14.2</v>
       </c>
-      <c r="F12" s="77" t="n">
+      <c r="F12" s="87" t="n">
         <v>11.9</v>
       </c>
-      <c r="G12" s="78" t="n">
+      <c r="G12" s="88" t="n">
         <v>11.1</v>
       </c>
-      <c r="H12" s="78" t="n">
+      <c r="H12" s="88" t="n">
         <v>10.2</v>
       </c>
-      <c r="I12" s="78" t="n">
+      <c r="I12" s="88" t="n">
         <v>9.54</v>
       </c>
-      <c r="J12" s="78" t="n">
+      <c r="J12" s="88" t="n">
         <v>8.5</v>
       </c>
-      <c r="K12" s="78" t="n">
+      <c r="K12" s="88" t="n">
         <v>8.41</v>
       </c>
-      <c r="L12" s="78" t="n">
+      <c r="L12" s="88" t="n">
         <v>6.53</v>
       </c>
-      <c r="M12" s="78" t="n">
+      <c r="M12" s="88" t="n">
         <v>5.33</v>
       </c>
-      <c r="N12" s="78" t="n">
+      <c r="N12" s="88" t="n">
         <v>4.94</v>
       </c>
-      <c r="O12" s="88" t="n">
+      <c r="O12" s="98" t="n">
         <v>4.6</v>
       </c>
       <c r="P12" s="51" t="n">
         <v>4.49</v>
       </c>
-      <c r="Q12" s="79" t="n">
+      <c r="Q12" s="89" t="n">
         <v>4.32</v>
       </c>
     </row>
@@ -25910,66 +25989,66 @@
       <c r="A13" s="28" t="n">
         <v>42797</v>
       </c>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="99" t="s">
         <v>556</v>
       </c>
-      <c r="C13" s="78" t="n">
+      <c r="C13" s="88" t="n">
         <v>4.07</v>
       </c>
-      <c r="D13" s="78" t="n">
+      <c r="D13" s="88" t="n">
         <v>3.18</v>
       </c>
-      <c r="E13" s="78" t="n">
+      <c r="E13" s="88" t="n">
         <v>3.16</v>
       </c>
-      <c r="F13" s="78" t="n">
+      <c r="F13" s="88" t="n">
         <v>2.4</v>
       </c>
-      <c r="G13" s="78" t="n">
+      <c r="G13" s="88" t="n">
         <v>3.44</v>
       </c>
-      <c r="H13" s="78" t="n">
+      <c r="H13" s="88" t="n">
         <v>3.92</v>
       </c>
-      <c r="I13" s="78" t="n">
+      <c r="I13" s="88" t="n">
         <v>2.6</v>
       </c>
-      <c r="J13" s="78" t="n">
+      <c r="J13" s="88" t="n">
         <v>4.04</v>
       </c>
-      <c r="K13" s="78" t="n">
+      <c r="K13" s="88" t="n">
         <v>2.73</v>
       </c>
-      <c r="L13" s="78" t="n">
+      <c r="L13" s="88" t="n">
         <v>5.05</v>
       </c>
-      <c r="M13" s="78" t="n">
+      <c r="M13" s="88" t="n">
         <v>3.05</v>
       </c>
-      <c r="N13" s="78" t="n">
+      <c r="N13" s="88" t="n">
         <v>1.36</v>
       </c>
       <c r="O13" s="51"/>
       <c r="P13" s="51"/>
-      <c r="Q13" s="79"/>
+      <c r="Q13" s="89"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="82" t="n">
+      <c r="A14" s="92" t="n">
         <v>42949</v>
       </c>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="100" t="s">
         <v>557</v>
       </c>
-      <c r="C14" s="81" t="n">
+      <c r="C14" s="91" t="n">
         <v>9.55</v>
       </c>
-      <c r="D14" s="81" t="n">
+      <c r="D14" s="91" t="n">
         <v>9.54</v>
       </c>
-      <c r="E14" s="81" t="n">
+      <c r="E14" s="91" t="n">
         <v>9.15</v>
       </c>
-      <c r="F14" s="81" t="n">
+      <c r="F14" s="91" t="n">
         <v>9.45</v>
       </c>
       <c r="G14" s="20" t="n">
@@ -25993,7 +26072,7 @@
       <c r="M14" s="20" t="n">
         <v>23.2</v>
       </c>
-      <c r="N14" s="81" t="n">
+      <c r="N14" s="91" t="n">
         <v>8.76</v>
       </c>
       <c r="O14" s="29" t="n">
@@ -26007,55 +26086,55 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="82" t="n">
+      <c r="A15" s="92" t="n">
         <v>42997</v>
       </c>
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="100" t="s">
         <v>558</v>
       </c>
-      <c r="C15" s="91" t="n">
+      <c r="C15" s="101" t="n">
         <v>6.31</v>
       </c>
-      <c r="D15" s="92" t="n">
+      <c r="D15" s="102" t="n">
         <v>8.05</v>
       </c>
-      <c r="E15" s="92" t="n">
+      <c r="E15" s="102" t="n">
         <v>7.46</v>
       </c>
-      <c r="F15" s="92" t="n">
+      <c r="F15" s="102" t="n">
         <v>8.4</v>
       </c>
-      <c r="G15" s="93" t="n">
+      <c r="G15" s="103" t="n">
         <v>11.2</v>
       </c>
-      <c r="H15" s="93" t="n">
+      <c r="H15" s="103" t="n">
         <v>14.1</v>
       </c>
-      <c r="I15" s="93" t="n">
+      <c r="I15" s="103" t="n">
         <v>15.7</v>
       </c>
-      <c r="J15" s="93" t="n">
+      <c r="J15" s="103" t="n">
         <v>15.6</v>
       </c>
-      <c r="K15" s="93" t="s">
+      <c r="K15" s="103" t="s">
         <v>559</v>
       </c>
-      <c r="L15" s="86" t="s">
+      <c r="L15" s="96" t="s">
         <v>559</v>
       </c>
-      <c r="M15" s="93" t="n">
+      <c r="M15" s="103" t="n">
         <v>15.2</v>
       </c>
-      <c r="N15" s="86" t="n">
+      <c r="N15" s="96" t="n">
         <v>27</v>
       </c>
-      <c r="O15" s="94" t="n">
+      <c r="O15" s="104" t="n">
         <v>4.99</v>
       </c>
-      <c r="P15" s="93" t="n">
+      <c r="P15" s="103" t="n">
         <v>4.15</v>
       </c>
-      <c r="Q15" s="92" t="n">
+      <c r="Q15" s="102" t="n">
         <v>4.01</v>
       </c>
     </row>
@@ -26066,49 +26145,49 @@
       <c r="B16" s="14" t="s">
         <v>560</v>
       </c>
-      <c r="C16" s="95" t="n">
+      <c r="C16" s="105" t="n">
         <v>24</v>
       </c>
-      <c r="D16" s="95" t="n">
+      <c r="D16" s="105" t="n">
         <v>28.8</v>
       </c>
-      <c r="E16" s="95" t="n">
+      <c r="E16" s="105" t="n">
         <v>58.2</v>
       </c>
-      <c r="F16" s="95" t="n">
+      <c r="F16" s="105" t="n">
         <v>29</v>
       </c>
-      <c r="G16" s="95" t="n">
+      <c r="G16" s="105" t="n">
         <v>21.7</v>
       </c>
-      <c r="H16" s="95" t="n">
+      <c r="H16" s="105" t="n">
         <v>20.3</v>
       </c>
-      <c r="I16" s="95" t="n">
+      <c r="I16" s="105" t="n">
         <v>20.1</v>
       </c>
-      <c r="J16" s="95" t="n">
+      <c r="J16" s="105" t="n">
         <v>13.1</v>
       </c>
-      <c r="K16" s="95" t="n">
+      <c r="K16" s="105" t="n">
         <v>10.5</v>
       </c>
-      <c r="L16" s="95" t="n">
+      <c r="L16" s="105" t="n">
         <v>9.82</v>
       </c>
-      <c r="M16" s="95" t="n">
+      <c r="M16" s="105" t="n">
         <v>9.51</v>
       </c>
-      <c r="N16" s="95" t="n">
+      <c r="N16" s="105" t="n">
         <v>8.93</v>
       </c>
-      <c r="O16" s="65" t="n">
+      <c r="O16" s="106" t="n">
         <v>8.77</v>
       </c>
-      <c r="P16" s="65" t="n">
+      <c r="P16" s="106" t="n">
         <v>8.33</v>
       </c>
-      <c r="Q16" s="65" t="n">
+      <c r="Q16" s="106" t="n">
         <v>7.95</v>
       </c>
     </row>
@@ -26119,87 +26198,87 @@
       <c r="B17" s="25" t="s">
         <v>561</v>
       </c>
-      <c r="C17" s="96" t="n">
+      <c r="C17" s="107" t="n">
         <v>6.19</v>
       </c>
-      <c r="D17" s="96" t="n">
+      <c r="D17" s="107" t="n">
         <v>2.55</v>
       </c>
-      <c r="E17" s="96" t="n">
+      <c r="E17" s="107" t="n">
         <v>4.78</v>
       </c>
-      <c r="F17" s="96" t="n">
+      <c r="F17" s="107" t="n">
         <v>2.27</v>
       </c>
-      <c r="G17" s="97" t="n">
+      <c r="G17" s="108" t="n">
         <v>2.3</v>
       </c>
-      <c r="H17" s="96" t="n">
+      <c r="H17" s="107" t="n">
         <v>2.58</v>
       </c>
-      <c r="I17" s="96" t="n">
+      <c r="I17" s="107" t="n">
         <v>4.33</v>
       </c>
-      <c r="J17" s="96" t="n">
+      <c r="J17" s="107" t="n">
         <v>2.22</v>
       </c>
-      <c r="K17" s="96" t="n">
+      <c r="K17" s="107" t="n">
         <v>2.13</v>
       </c>
-      <c r="L17" s="96" t="n">
+      <c r="L17" s="107" t="n">
         <v>2.13</v>
       </c>
-      <c r="M17" s="96" t="n">
+      <c r="M17" s="107" t="n">
         <v>1.96</v>
       </c>
-      <c r="N17" s="96" t="n">
+      <c r="N17" s="107" t="n">
         <v>1.91</v>
       </c>
       <c r="O17" s="51"/>
       <c r="P17" s="51"/>
-      <c r="Q17" s="79"/>
+      <c r="Q17" s="89"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="18" t="n">
         <v>42882</v>
       </c>
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="109" t="s">
         <v>562</v>
       </c>
-      <c r="C18" s="96" t="n">
+      <c r="C18" s="107" t="n">
         <v>5.2</v>
       </c>
-      <c r="D18" s="96" t="n">
+      <c r="D18" s="107" t="n">
         <v>6.06</v>
       </c>
-      <c r="E18" s="96" t="n">
+      <c r="E18" s="107" t="n">
         <v>5.11</v>
       </c>
-      <c r="F18" s="96" t="n">
+      <c r="F18" s="107" t="n">
         <v>7.11</v>
       </c>
-      <c r="G18" s="96" t="n">
+      <c r="G18" s="107" t="n">
         <v>6.05</v>
       </c>
-      <c r="H18" s="96" t="n">
+      <c r="H18" s="107" t="n">
         <v>4.51</v>
       </c>
-      <c r="I18" s="96" t="n">
+      <c r="I18" s="107" t="n">
         <v>4.96</v>
       </c>
-      <c r="J18" s="96" t="n">
+      <c r="J18" s="107" t="n">
         <v>3.55</v>
       </c>
-      <c r="K18" s="96" t="n">
+      <c r="K18" s="107" t="n">
         <v>3.49</v>
       </c>
-      <c r="L18" s="96" t="n">
+      <c r="L18" s="107" t="n">
         <v>2.22</v>
       </c>
-      <c r="M18" s="97" t="n">
+      <c r="M18" s="108" t="n">
         <v>2</v>
       </c>
-      <c r="N18" s="96" t="n">
+      <c r="N18" s="107" t="n">
         <v>1.57</v>
       </c>
       <c r="O18" s="14"/>
@@ -26207,102 +26286,102 @@
       <c r="Q18" s="29"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="99" t="n">
+      <c r="A19" s="110" t="n">
         <v>42882</v>
       </c>
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="111" t="s">
         <v>563</v>
       </c>
-      <c r="C19" s="96" t="n">
+      <c r="C19" s="107" t="n">
         <v>13.9</v>
       </c>
-      <c r="D19" s="96" t="n">
+      <c r="D19" s="107" t="n">
         <v>23.1</v>
       </c>
-      <c r="E19" s="96" t="n">
+      <c r="E19" s="107" t="n">
         <v>39.8</v>
       </c>
-      <c r="F19" s="96" t="n">
+      <c r="F19" s="107" t="n">
         <v>26.7</v>
       </c>
-      <c r="G19" s="96" t="n">
+      <c r="G19" s="107" t="n">
         <v>27</v>
       </c>
-      <c r="H19" s="96" t="n">
+      <c r="H19" s="107" t="n">
         <v>25.3</v>
       </c>
-      <c r="I19" s="96" t="n">
+      <c r="I19" s="107" t="n">
         <v>24.9</v>
       </c>
-      <c r="J19" s="96" t="n">
+      <c r="J19" s="107" t="n">
         <v>24.7</v>
       </c>
-      <c r="K19" s="96" t="n">
+      <c r="K19" s="107" t="n">
         <v>33.1</v>
       </c>
-      <c r="L19" s="96" t="n">
+      <c r="L19" s="107" t="n">
         <v>17.4</v>
       </c>
-      <c r="M19" s="96" t="n">
+      <c r="M19" s="107" t="n">
         <v>6.18</v>
       </c>
-      <c r="N19" s="96" t="n">
+      <c r="N19" s="107" t="n">
         <v>5.3</v>
       </c>
-      <c r="O19" s="94"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="92"/>
+      <c r="O19" s="104"/>
+      <c r="P19" s="103"/>
+      <c r="Q19" s="102"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="18" t="n">
         <v>42957</v>
       </c>
-      <c r="B20" s="98" t="s">
+      <c r="B20" s="109" t="s">
         <v>563</v>
       </c>
-      <c r="C20" s="65" t="n">
+      <c r="C20" s="106" t="n">
         <v>14.3</v>
       </c>
-      <c r="D20" s="65" t="n">
+      <c r="D20" s="106" t="n">
         <v>21.7</v>
       </c>
-      <c r="E20" s="65" t="n">
+      <c r="E20" s="106" t="n">
         <v>28.2</v>
       </c>
-      <c r="F20" s="65" t="n">
+      <c r="F20" s="106" t="n">
         <v>29.6</v>
       </c>
-      <c r="G20" s="65" t="n">
+      <c r="G20" s="106" t="n">
         <v>30.5</v>
       </c>
-      <c r="H20" s="65" t="n">
+      <c r="H20" s="106" t="n">
         <v>30</v>
       </c>
-      <c r="I20" s="65" t="n">
+      <c r="I20" s="106" t="n">
         <v>33.6</v>
       </c>
-      <c r="J20" s="65" t="n">
+      <c r="J20" s="106" t="n">
         <v>38.6</v>
       </c>
-      <c r="K20" s="65" t="n">
+      <c r="K20" s="106" t="n">
         <v>34.8</v>
       </c>
-      <c r="L20" s="65" t="n">
+      <c r="L20" s="106" t="n">
         <v>32.1</v>
       </c>
-      <c r="M20" s="65" t="n">
+      <c r="M20" s="106" t="n">
         <v>10.4</v>
       </c>
-      <c r="N20" s="65" t="n">
+      <c r="N20" s="106" t="n">
         <v>8.32</v>
       </c>
-      <c r="O20" s="101" t="n">
+      <c r="O20" s="112" t="n">
         <v>8.04</v>
       </c>
-      <c r="P20" s="96" t="n">
+      <c r="P20" s="107" t="n">
         <v>7.87</v>
       </c>
-      <c r="Q20" s="96" t="n">
+      <c r="Q20" s="107" t="n">
         <v>7.61</v>
       </c>
     </row>
@@ -26313,40 +26392,40 @@
       <c r="B21" s="14" t="s">
         <v>564</v>
       </c>
-      <c r="C21" s="65" t="n">
+      <c r="C21" s="106" t="n">
         <v>177</v>
       </c>
-      <c r="D21" s="65" t="n">
+      <c r="D21" s="106" t="n">
         <v>93.4</v>
       </c>
-      <c r="E21" s="65" t="n">
+      <c r="E21" s="106" t="n">
         <v>123</v>
       </c>
-      <c r="F21" s="65" t="n">
+      <c r="F21" s="106" t="n">
         <v>110</v>
       </c>
-      <c r="G21" s="65" t="n">
+      <c r="G21" s="106" t="n">
         <v>84.1</v>
       </c>
-      <c r="H21" s="65" t="n">
+      <c r="H21" s="106" t="n">
         <v>70.9</v>
       </c>
-      <c r="I21" s="65" t="n">
+      <c r="I21" s="106" t="n">
         <v>41.5</v>
       </c>
-      <c r="J21" s="65" t="n">
+      <c r="J21" s="106" t="n">
         <v>22.7</v>
       </c>
-      <c r="K21" s="65" t="n">
+      <c r="K21" s="106" t="n">
         <v>42.5</v>
       </c>
-      <c r="L21" s="65" t="n">
+      <c r="L21" s="106" t="n">
         <v>52.9</v>
       </c>
-      <c r="M21" s="65" t="n">
+      <c r="M21" s="106" t="n">
         <v>9.93</v>
       </c>
-      <c r="N21" s="65" t="n">
+      <c r="N21" s="106" t="n">
         <v>7.82</v>
       </c>
       <c r="O21" s="14"/>
@@ -26354,13 +26433,13 @@
       <c r="Q21" s="29"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="69" t="n">
+      <c r="A22" s="81" t="n">
         <v>43061</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>565</v>
       </c>
-      <c r="C22" s="68" t="n">
+      <c r="C22" s="113" t="n">
         <v>12.7</v>
       </c>
       <c r="D22" s="31" t="n">
@@ -26401,7 +26480,7 @@
       <c r="Q22" s="29"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="102" t="n">
+      <c r="A23" s="114" t="n">
         <v>43047</v>
       </c>
       <c r="B23" s="25" t="s">
@@ -26422,7 +26501,7 @@
       <c r="G23" s="39" t="n">
         <v>15</v>
       </c>
-      <c r="H23" s="72" t="n">
+      <c r="H23" s="82" t="n">
         <v>13.3</v>
       </c>
       <c r="I23" s="22" t="n">
@@ -26444,14 +26523,14 @@
         <v>3.37</v>
       </c>
       <c r="O23" s="39"/>
-      <c r="P23" s="72"/>
+      <c r="P23" s="82"/>
       <c r="Q23" s="22"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="99" t="n">
+      <c r="A24" s="110" t="n">
         <v>42672</v>
       </c>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="99" t="s">
         <v>567</v>
       </c>
       <c r="C24" s="20" t="n">
@@ -26484,10 +26563,10 @@
       <c r="L24" s="20" t="n">
         <v>21.4</v>
       </c>
-      <c r="M24" s="81" t="n">
+      <c r="M24" s="91" t="n">
         <v>4.78</v>
       </c>
-      <c r="N24" s="81" t="n">
+      <c r="N24" s="91" t="n">
         <v>4.35</v>
       </c>
       <c r="O24" s="14"/>
@@ -26495,7 +26574,7 @@
       <c r="Q24" s="29"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="102" t="n">
+      <c r="A25" s="114" t="n">
         <v>42994</v>
       </c>
       <c r="B25" s="25" t="s">
@@ -26516,7 +26595,7 @@
       <c r="G25" s="39" t="n">
         <v>24.3</v>
       </c>
-      <c r="H25" s="72" t="n">
+      <c r="H25" s="82" t="n">
         <v>21.2</v>
       </c>
       <c r="I25" s="22" t="n">
@@ -26540,7 +26619,7 @@
       <c r="O25" s="39" t="n">
         <v>5.59</v>
       </c>
-      <c r="P25" s="72" t="n">
+      <c r="P25" s="82" t="n">
         <v>5.59</v>
       </c>
       <c r="Q25" s="22" t="n">
@@ -26548,7 +26627,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="102" t="n">
+      <c r="A26" s="114" t="n">
         <v>43034</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -26569,7 +26648,7 @@
       <c r="G26" s="39" t="n">
         <v>8.14</v>
       </c>
-      <c r="H26" s="72" t="n">
+      <c r="H26" s="82" t="n">
         <v>9.04</v>
       </c>
       <c r="I26" s="22" t="n">
@@ -26593,7 +26672,7 @@
       <c r="O26" s="39" t="n">
         <v>6.38</v>
       </c>
-      <c r="P26" s="72" t="n">
+      <c r="P26" s="82" t="n">
         <v>5.53</v>
       </c>
       <c r="Q26" s="22" t="n">
@@ -26607,7 +26686,7 @@
       <c r="B27" s="25" t="s">
         <v>570</v>
       </c>
-      <c r="C27" s="81" t="n">
+      <c r="C27" s="91" t="n">
         <v>3.95</v>
       </c>
       <c r="D27" s="20" t="n">
@@ -26628,19 +26707,19 @@
       <c r="I27" s="20" t="n">
         <v>12.6</v>
       </c>
-      <c r="J27" s="81" t="n">
+      <c r="J27" s="91" t="n">
         <v>9.49</v>
       </c>
-      <c r="K27" s="81" t="n">
+      <c r="K27" s="91" t="n">
         <v>5.98</v>
       </c>
-      <c r="L27" s="81" t="n">
+      <c r="L27" s="91" t="n">
         <v>3.22</v>
       </c>
-      <c r="M27" s="81" t="n">
+      <c r="M27" s="91" t="n">
         <v>3.06</v>
       </c>
-      <c r="N27" s="81" t="n">
+      <c r="N27" s="91" t="n">
         <v>1.99</v>
       </c>
       <c r="O27" s="14"/>
@@ -26654,40 +26733,40 @@
       <c r="B28" s="25" t="s">
         <v>570</v>
       </c>
-      <c r="C28" s="65" t="n">
+      <c r="C28" s="106" t="n">
         <v>7.58</v>
       </c>
-      <c r="D28" s="65" t="n">
+      <c r="D28" s="106" t="n">
         <v>8.37</v>
       </c>
-      <c r="E28" s="65" t="n">
+      <c r="E28" s="106" t="n">
         <v>8.27</v>
       </c>
-      <c r="F28" s="103" t="n">
+      <c r="F28" s="115" t="n">
         <v>8.4</v>
       </c>
-      <c r="G28" s="65" t="n">
+      <c r="G28" s="106" t="n">
         <v>8.47</v>
       </c>
-      <c r="H28" s="65" t="n">
+      <c r="H28" s="106" t="n">
         <v>8.52</v>
       </c>
-      <c r="I28" s="65" t="n">
+      <c r="I28" s="106" t="n">
         <v>8.14</v>
       </c>
-      <c r="J28" s="103" t="n">
+      <c r="J28" s="115" t="n">
         <v>7.4</v>
       </c>
-      <c r="K28" s="65" t="n">
+      <c r="K28" s="106" t="n">
         <v>7.04</v>
       </c>
-      <c r="L28" s="65" t="n">
+      <c r="L28" s="106" t="n">
         <v>6.81</v>
       </c>
-      <c r="M28" s="65" t="n">
+      <c r="M28" s="106" t="n">
         <v>6.77</v>
       </c>
-      <c r="N28" s="65" t="n">
+      <c r="N28" s="106" t="n">
         <v>5.31</v>
       </c>
       <c r="O28" s="14"/>
@@ -26701,307 +26780,307 @@
       <c r="B29" s="14" t="s">
         <v>571</v>
       </c>
-      <c r="C29" s="65" t="n">
+      <c r="C29" s="106" t="n">
         <v>6.08</v>
       </c>
-      <c r="D29" s="65" t="n">
+      <c r="D29" s="106" t="n">
         <v>7.74</v>
       </c>
-      <c r="E29" s="65" t="n">
+      <c r="E29" s="106" t="n">
         <v>11.7</v>
       </c>
-      <c r="F29" s="65" t="n">
+      <c r="F29" s="106" t="n">
         <v>10.1</v>
       </c>
-      <c r="G29" s="65" t="n">
+      <c r="G29" s="106" t="n">
         <v>9.96</v>
       </c>
-      <c r="H29" s="65" t="n">
+      <c r="H29" s="106" t="n">
         <v>10.7</v>
       </c>
-      <c r="I29" s="68" t="n">
+      <c r="I29" s="113" t="n">
         <v>11</v>
       </c>
-      <c r="J29" s="65" t="n">
+      <c r="J29" s="106" t="n">
         <v>9.67</v>
       </c>
-      <c r="K29" s="65" t="n">
+      <c r="K29" s="106" t="n">
         <v>12.3</v>
       </c>
-      <c r="L29" s="65" t="n">
+      <c r="L29" s="106" t="n">
         <v>6.02</v>
       </c>
-      <c r="M29" s="65" t="n">
+      <c r="M29" s="106" t="n">
         <v>5.18</v>
       </c>
-      <c r="N29" s="65" t="n">
+      <c r="N29" s="106" t="n">
         <v>4.78</v>
       </c>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
       <c r="Q29" s="29"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="69" t="n">
+    <row r="30" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="76" t="n">
         <v>43007</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="73" t="s">
         <v>572</v>
       </c>
-      <c r="C30" s="39" t="n">
+      <c r="C30" s="116" t="n">
         <v>1.73</v>
       </c>
-      <c r="D30" s="39" t="n">
+      <c r="D30" s="116" t="n">
         <v>23.1</v>
       </c>
-      <c r="E30" s="39" t="n">
+      <c r="E30" s="116" t="n">
         <v>4.67</v>
       </c>
-      <c r="F30" s="39" t="n">
+      <c r="F30" s="116" t="n">
         <v>4.19</v>
       </c>
-      <c r="G30" s="39" t="n">
+      <c r="G30" s="116" t="n">
         <v>4.88</v>
       </c>
-      <c r="H30" s="72" t="n">
+      <c r="H30" s="117" t="n">
         <v>3.79</v>
       </c>
-      <c r="I30" s="22" t="n">
+      <c r="I30" s="118" t="n">
         <v>2.18</v>
       </c>
-      <c r="J30" s="25" t="n">
+      <c r="J30" s="73" t="n">
         <v>2.12</v>
       </c>
-      <c r="K30" s="39" t="n">
+      <c r="K30" s="116" t="n">
         <v>1.73</v>
       </c>
-      <c r="L30" s="39" t="n">
+      <c r="L30" s="116" t="n">
         <v>1.9</v>
       </c>
-      <c r="M30" s="39" t="n">
+      <c r="M30" s="116" t="n">
         <v>2.33</v>
       </c>
-      <c r="N30" s="39" t="n">
+      <c r="N30" s="116" t="n">
         <v>1.36</v>
       </c>
-      <c r="O30" s="39"/>
-      <c r="P30" s="72"/>
-      <c r="Q30" s="22"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="18" t="n">
+      <c r="O30" s="116"/>
+      <c r="P30" s="117"/>
+      <c r="Q30" s="118"/>
+    </row>
+    <row r="31" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="72" t="n">
         <v>42895</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="73" t="s">
         <v>573</v>
       </c>
-      <c r="C31" s="65" t="n">
+      <c r="C31" s="67" t="n">
         <v>2.56</v>
       </c>
-      <c r="D31" s="65" t="n">
+      <c r="D31" s="67" t="n">
         <v>3.31</v>
       </c>
-      <c r="E31" s="65" t="n">
+      <c r="E31" s="67" t="n">
         <v>4.24</v>
       </c>
-      <c r="F31" s="65" t="n">
+      <c r="F31" s="67" t="n">
         <v>10.5</v>
       </c>
-      <c r="G31" s="65" t="n">
+      <c r="G31" s="67" t="n">
         <v>13.9</v>
       </c>
-      <c r="H31" s="65" t="n">
+      <c r="H31" s="67" t="n">
         <v>14.9</v>
       </c>
-      <c r="I31" s="65" t="n">
+      <c r="I31" s="67" t="n">
         <v>17.6</v>
       </c>
-      <c r="J31" s="65" t="n">
+      <c r="J31" s="67" t="n">
         <v>12.7</v>
       </c>
-      <c r="K31" s="65" t="n">
+      <c r="K31" s="67" t="n">
         <v>19.9</v>
       </c>
-      <c r="L31" s="65" t="n">
+      <c r="L31" s="67" t="n">
         <v>21.6</v>
       </c>
-      <c r="M31" s="65" t="n">
+      <c r="M31" s="67" t="n">
         <v>4.21</v>
       </c>
-      <c r="N31" s="65" t="n">
+      <c r="N31" s="67" t="n">
         <v>2.03</v>
       </c>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="29"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="28" t="n">
+      <c r="O31" s="66"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="70"/>
+    </row>
+    <row r="32" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="65" t="n">
         <v>42860</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="73" t="s">
         <v>574</v>
       </c>
-      <c r="C32" s="81" t="n">
+      <c r="C32" s="119" t="n">
         <v>5.54</v>
       </c>
-      <c r="D32" s="81" t="n">
+      <c r="D32" s="119" t="n">
         <v>3.96</v>
       </c>
-      <c r="E32" s="81" t="n">
+      <c r="E32" s="119" t="n">
         <v>3.06</v>
       </c>
-      <c r="F32" s="20" t="n">
+      <c r="F32" s="120" t="n">
         <v>12.5</v>
       </c>
-      <c r="G32" s="20" t="n">
+      <c r="G32" s="120" t="n">
         <v>26.9</v>
       </c>
-      <c r="H32" s="20" t="n">
+      <c r="H32" s="120" t="n">
         <v>14.2</v>
       </c>
-      <c r="I32" s="20" t="n">
+      <c r="I32" s="120" t="n">
         <v>13.2</v>
       </c>
-      <c r="J32" s="20" t="n">
+      <c r="J32" s="120" t="n">
         <v>30.9</v>
       </c>
-      <c r="K32" s="20" t="n">
+      <c r="K32" s="120" t="n">
         <v>20.6</v>
       </c>
-      <c r="L32" s="81" t="n">
+      <c r="L32" s="119" t="n">
         <v>5.13</v>
       </c>
-      <c r="M32" s="81" t="n">
+      <c r="M32" s="119" t="n">
         <v>9.49</v>
       </c>
-      <c r="N32" s="81" t="n">
+      <c r="N32" s="119" t="n">
         <v>2.79</v>
       </c>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="28" t="n">
+      <c r="O32" s="75"/>
+      <c r="P32" s="75"/>
+      <c r="Q32" s="75"/>
+    </row>
+    <row r="33" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="65" t="n">
         <v>42948</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="73" t="s">
         <v>574</v>
       </c>
-      <c r="C33" s="20" t="n">
+      <c r="C33" s="120" t="n">
         <v>13.1</v>
       </c>
-      <c r="D33" s="104" t="n">
+      <c r="D33" s="121" t="n">
         <v>3</v>
       </c>
-      <c r="E33" s="81" t="n">
+      <c r="E33" s="119" t="n">
         <v>3.05</v>
       </c>
-      <c r="F33" s="81" t="n">
+      <c r="F33" s="119" t="n">
         <v>3.84</v>
       </c>
-      <c r="G33" s="81" t="n">
+      <c r="G33" s="119" t="n">
         <v>6.53</v>
       </c>
-      <c r="H33" s="81" t="n">
+      <c r="H33" s="119" t="n">
         <v>8.34</v>
       </c>
-      <c r="I33" s="20" t="n">
+      <c r="I33" s="120" t="n">
         <v>11.6</v>
       </c>
-      <c r="J33" s="81" t="n">
+      <c r="J33" s="119" t="n">
         <v>9.71</v>
       </c>
-      <c r="K33" s="81" t="n">
+      <c r="K33" s="119" t="n">
         <v>9.46</v>
       </c>
-      <c r="L33" s="20" t="n">
+      <c r="L33" s="120" t="n">
         <v>14.4</v>
       </c>
-      <c r="M33" s="20" t="n">
+      <c r="M33" s="120" t="n">
         <v>8.2</v>
       </c>
-      <c r="N33" s="81" t="n">
+      <c r="N33" s="119" t="n">
         <v>3.1</v>
       </c>
-      <c r="O33" s="29" t="n">
+      <c r="O33" s="70" t="n">
         <v>3.16</v>
       </c>
-      <c r="P33" s="29" t="n">
+      <c r="P33" s="70" t="n">
         <v>2.92</v>
       </c>
-      <c r="Q33" s="29" t="n">
+      <c r="Q33" s="70" t="n">
         <v>2.65</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="18" t="n">
+    <row r="34" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="72" t="n">
         <v>42987</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="66" t="s">
         <v>575</v>
       </c>
-      <c r="C34" s="103" t="n">
+      <c r="C34" s="122" t="n">
         <v>5.12</v>
       </c>
-      <c r="D34" s="81" t="n">
+      <c r="D34" s="119" t="n">
         <v>6.39</v>
       </c>
-      <c r="E34" s="81" t="n">
+      <c r="E34" s="119" t="n">
         <v>6.69</v>
       </c>
-      <c r="F34" s="81" t="n">
+      <c r="F34" s="119" t="n">
         <v>7.95</v>
       </c>
-      <c r="G34" s="29" t="n">
+      <c r="G34" s="70" t="n">
         <v>7.27</v>
       </c>
-      <c r="H34" s="29" t="n">
+      <c r="H34" s="70" t="n">
         <v>6.66</v>
       </c>
-      <c r="I34" s="29" t="n">
+      <c r="I34" s="70" t="n">
         <v>6.45</v>
       </c>
-      <c r="J34" s="29" t="n">
+      <c r="J34" s="70" t="n">
         <v>6.6</v>
       </c>
-      <c r="K34" s="29" t="n">
+      <c r="K34" s="70" t="n">
         <v>6.48</v>
       </c>
-      <c r="L34" s="29" t="n">
+      <c r="L34" s="70" t="n">
         <v>6.17</v>
       </c>
-      <c r="M34" s="29" t="n">
+      <c r="M34" s="70" t="n">
         <v>5.51</v>
       </c>
-      <c r="N34" s="29" t="n">
+      <c r="N34" s="70" t="n">
         <v>5</v>
       </c>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="29"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="66"/>
+      <c r="Q34" s="70"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="55" t="s">
         <v>529</v>
       </c>
-      <c r="B35" s="105"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="105"/>
-      <c r="N35" s="105"/>
-      <c r="O35" s="105"/>
-      <c r="P35" s="105"/>
-      <c r="Q35" s="105"/>
+      <c r="B35" s="123"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="123"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="123"/>
+      <c r="K35" s="123"/>
+      <c r="L35" s="123"/>
+      <c r="M35" s="123"/>
+      <c r="N35" s="123"/>
+      <c r="O35" s="123"/>
+      <c r="P35" s="123"/>
+      <c r="Q35" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -27030,7 +27109,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>#ref!="TBS"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/wq_study_results.xlsx
+++ b/wq_study_results.xlsx
@@ -1698,7 +1698,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">26XX N. Drake Ave.</t>
     </r>
@@ -1709,7 +1708,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Site 2</t>
     </r>
@@ -1723,7 +1721,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">28XX N. Christiana Ave. </t>
     </r>
@@ -1733,7 +1730,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Site 2</t>
     </r>
@@ -1751,7 +1747,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">32XX N. Nagle Ave. </t>
     </r>
@@ -1762,7 +1757,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Site 3</t>
     </r>
@@ -1777,7 +1771,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">34XX S. Marshfield Ave. </t>
     </r>
@@ -1788,7 +1781,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Site 2</t>
     </r>
@@ -1799,7 +1791,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">36XX S. Paulina St.</t>
     </r>
@@ -1810,7 +1801,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Site 2</t>
     </r>
@@ -1821,7 +1811,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">37XX N. Whipple St. </t>
     </r>
@@ -1831,7 +1820,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Site 1</t>
     </r>
@@ -1842,7 +1830,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">38XX N. Whipple St. </t>
     </r>
@@ -1852,7 +1839,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Site 3</t>
     </r>
@@ -1864,7 +1850,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">39XX N. Whipple St. </t>
     </r>
@@ -1875,7 +1860,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Site 1</t>
     </r>
@@ -1892,7 +1876,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">45XX N. Albany Ave.</t>
     </r>
@@ -1902,7 +1885,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Site 2</t>
     </r>
@@ -1913,7 +1895,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">45XX N. Whipple St. </t>
     </r>
@@ -1924,7 +1905,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Site 4</t>
     </r>
@@ -1944,7 +1924,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">66XX S. Kilpatrick Ave. </t>
     </r>
@@ -1955,7 +1934,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Site 3</t>
     </r>
@@ -1987,7 +1965,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2009,14 +1986,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2025,7 +2000,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2033,40 +2007,34 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2075,7 +2043,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2207,7 +2174,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="119">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2532,146 +2499,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="9" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2684,6 +2511,42 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2692,12 +2555,96 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2717,6 +2664,8 @@
   <dxfs count="28">
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2726,6 +2675,11 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -2733,6 +2687,11 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -2740,6 +2699,11 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -2747,6 +2711,11 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -2754,6 +2723,11 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -2761,6 +2735,11 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -2768,6 +2747,11 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -2775,6 +2759,11 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -2782,6 +2771,11 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -2789,6 +2783,11 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -2796,6 +2795,11 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -2803,6 +2807,11 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -2810,6 +2819,11 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -2817,6 +2831,11 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -2824,6 +2843,11 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -2831,6 +2855,11 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -2838,6 +2867,11 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -2845,6 +2879,11 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -2852,6 +2891,11 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -2859,6 +2903,11 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -2866,6 +2915,11 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -2873,6 +2927,11 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -2880,6 +2939,11 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -2887,6 +2951,11 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -2894,6 +2963,11 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -2901,6 +2975,11 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -2908,6 +2987,11 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -3028,8 +3112,8 @@
   </sheetPr>
   <dimension ref="A1:Q851"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B595" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A617" activeCellId="0" sqref="A617"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -25435,7 +25519,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R15" activeCellId="0" sqref="R15"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25691,1134 +25775,1134 @@
       <c r="P6" s="78"/>
       <c r="Q6" s="79"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="81" t="n">
+    <row r="7" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="76" t="n">
         <v>43056</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="73" t="s">
         <v>549</v>
       </c>
-      <c r="C7" s="39" t="n">
+      <c r="C7" s="81" t="n">
         <v>7.68</v>
       </c>
-      <c r="D7" s="39" t="n">
+      <c r="D7" s="81" t="n">
         <v>7.9</v>
       </c>
-      <c r="E7" s="39" t="n">
+      <c r="E7" s="81" t="n">
         <v>16.1</v>
       </c>
-      <c r="F7" s="39" t="n">
+      <c r="F7" s="81" t="n">
         <v>19.9</v>
       </c>
-      <c r="G7" s="39" t="n">
+      <c r="G7" s="81" t="n">
         <v>19.3</v>
       </c>
       <c r="H7" s="82" t="n">
         <v>20.8</v>
       </c>
-      <c r="I7" s="22" t="n">
+      <c r="I7" s="83" t="n">
         <v>63.1</v>
       </c>
-      <c r="J7" s="25" t="n">
+      <c r="J7" s="73" t="n">
         <v>26</v>
       </c>
-      <c r="K7" s="39" t="n">
+      <c r="K7" s="81" t="n">
         <v>26.2</v>
       </c>
-      <c r="L7" s="39" t="n">
+      <c r="L7" s="81" t="n">
         <v>27.4</v>
       </c>
-      <c r="M7" s="39" t="n">
+      <c r="M7" s="81" t="n">
         <v>21</v>
       </c>
-      <c r="N7" s="39" t="n">
+      <c r="N7" s="81" t="n">
         <v>8.7</v>
       </c>
-      <c r="O7" s="83"/>
+      <c r="O7" s="84"/>
       <c r="P7" s="82"/>
-      <c r="Q7" s="22"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="81" t="n">
+      <c r="Q7" s="83"/>
+    </row>
+    <row r="8" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="76" t="n">
         <v>43105</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="80" t="s">
         <v>550</v>
       </c>
-      <c r="C8" s="84" t="n">
+      <c r="C8" s="85" t="n">
         <v>4.46</v>
       </c>
-      <c r="D8" s="85" t="n">
+      <c r="D8" s="86" t="n">
         <v>2.99</v>
       </c>
-      <c r="E8" s="85" t="n">
+      <c r="E8" s="86" t="n">
         <v>3.48</v>
       </c>
-      <c r="F8" s="85" t="n">
+      <c r="F8" s="86" t="n">
         <v>5.18</v>
       </c>
-      <c r="G8" s="86" t="n">
+      <c r="G8" s="87" t="n">
         <v>4.56</v>
       </c>
-      <c r="H8" s="86" t="n">
+      <c r="H8" s="87" t="n">
         <v>4.52</v>
       </c>
-      <c r="I8" s="86" t="n">
+      <c r="I8" s="87" t="n">
         <v>5.94</v>
       </c>
-      <c r="J8" s="85" t="n">
+      <c r="J8" s="86" t="n">
         <v>6.8</v>
       </c>
-      <c r="K8" s="86" t="n">
+      <c r="K8" s="87" t="n">
         <v>6.71</v>
       </c>
-      <c r="L8" s="86" t="n">
+      <c r="L8" s="87" t="n">
         <v>6.69</v>
       </c>
-      <c r="M8" s="86" t="n">
+      <c r="M8" s="87" t="n">
         <v>2.65</v>
       </c>
-      <c r="N8" s="86" t="n">
+      <c r="N8" s="87" t="n">
         <v>1.74</v>
       </c>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="29"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="n">
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="70"/>
+    </row>
+    <row r="9" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="72" t="n">
         <v>42829</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="73" t="s">
         <v>551</v>
       </c>
-      <c r="C9" s="87" t="n">
+      <c r="C9" s="89" t="n">
         <v>23</v>
       </c>
-      <c r="D9" s="88" t="n">
+      <c r="D9" s="90" t="n">
         <v>5.23</v>
       </c>
-      <c r="E9" s="88" t="n">
+      <c r="E9" s="90" t="n">
         <v>4.29</v>
       </c>
-      <c r="F9" s="88" t="n">
+      <c r="F9" s="90" t="n">
         <v>4.56</v>
       </c>
-      <c r="G9" s="88" t="n">
+      <c r="G9" s="90" t="n">
         <v>4.53</v>
       </c>
-      <c r="H9" s="88" t="n">
+      <c r="H9" s="90" t="n">
         <v>3.48</v>
       </c>
-      <c r="I9" s="88" t="n">
+      <c r="I9" s="90" t="n">
         <v>9.66</v>
       </c>
-      <c r="J9" s="88" t="n">
+      <c r="J9" s="90" t="n">
         <v>8.68</v>
       </c>
-      <c r="K9" s="88" t="n">
+      <c r="K9" s="90" t="n">
         <v>8.57</v>
       </c>
-      <c r="L9" s="88" t="n">
+      <c r="L9" s="90" t="n">
         <v>6.81</v>
       </c>
-      <c r="M9" s="88" t="n">
+      <c r="M9" s="90" t="n">
         <v>3.92</v>
       </c>
-      <c r="N9" s="88" t="n">
+      <c r="N9" s="90" t="n">
         <v>3.32</v>
       </c>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="89"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="28" t="n">
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="91"/>
+    </row>
+    <row r="10" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="65" t="n">
         <v>42676</v>
       </c>
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="92" t="s">
         <v>552</v>
       </c>
-      <c r="C10" s="91" t="n">
+      <c r="C10" s="93" t="n">
         <v>5.07</v>
       </c>
-      <c r="D10" s="91" t="n">
+      <c r="D10" s="93" t="n">
         <v>5.72</v>
       </c>
-      <c r="E10" s="91" t="n">
+      <c r="E10" s="93" t="n">
         <v>3.06</v>
       </c>
-      <c r="F10" s="91" t="n">
+      <c r="F10" s="93" t="n">
         <v>2.65</v>
       </c>
-      <c r="G10" s="91" t="n">
+      <c r="G10" s="93" t="n">
         <v>6.3</v>
       </c>
-      <c r="H10" s="20" t="n">
+      <c r="H10" s="94" t="n">
         <v>11.9</v>
       </c>
-      <c r="I10" s="20" t="n">
+      <c r="I10" s="94" t="n">
         <v>25</v>
       </c>
-      <c r="J10" s="20" t="n">
+      <c r="J10" s="94" t="n">
         <v>24</v>
       </c>
-      <c r="K10" s="20" t="n">
+      <c r="K10" s="94" t="n">
         <v>12.4</v>
       </c>
-      <c r="L10" s="91" t="n">
+      <c r="L10" s="93" t="n">
         <v>5.7</v>
       </c>
-      <c r="M10" s="91" t="n">
+      <c r="M10" s="93" t="n">
         <v>4.22</v>
       </c>
-      <c r="N10" s="91" t="n">
+      <c r="N10" s="93" t="n">
         <v>3.15</v>
       </c>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="29"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="92" t="n">
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="70"/>
+    </row>
+    <row r="11" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="95" t="n">
         <v>42951</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="87" t="s">
         <v>553</v>
       </c>
-      <c r="C11" s="84" t="n">
+      <c r="C11" s="85" t="n">
         <v>1.61</v>
       </c>
-      <c r="D11" s="93" t="n">
+      <c r="D11" s="96" t="n">
         <v>2.1</v>
       </c>
-      <c r="E11" s="93" t="n">
+      <c r="E11" s="96" t="n">
         <v>1.65</v>
       </c>
-      <c r="F11" s="94" t="s">
+      <c r="F11" s="97" t="s">
         <v>554</v>
       </c>
-      <c r="G11" s="95" t="s">
+      <c r="G11" s="98" t="s">
         <v>554</v>
       </c>
-      <c r="H11" s="95" t="s">
+      <c r="H11" s="98" t="s">
         <v>554</v>
       </c>
-      <c r="I11" s="95" t="s">
+      <c r="I11" s="98" t="s">
         <v>554</v>
       </c>
-      <c r="J11" s="95" t="s">
+      <c r="J11" s="98" t="s">
         <v>554</v>
       </c>
-      <c r="K11" s="95" t="s">
+      <c r="K11" s="98" t="s">
         <v>554</v>
       </c>
-      <c r="L11" s="95" t="s">
+      <c r="L11" s="98" t="s">
         <v>554</v>
       </c>
-      <c r="M11" s="95" t="s">
+      <c r="M11" s="98" t="s">
         <v>554</v>
       </c>
-      <c r="N11" s="95" t="s">
+      <c r="N11" s="98" t="s">
         <v>554</v>
       </c>
-      <c r="O11" s="96" t="s">
+      <c r="O11" s="99" t="s">
         <v>554</v>
       </c>
-      <c r="P11" s="96" t="s">
+      <c r="P11" s="99" t="s">
         <v>554</v>
       </c>
-      <c r="Q11" s="96" t="s">
+      <c r="Q11" s="99" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="97" t="n">
+    <row r="12" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="100" t="n">
         <v>42832</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="80" t="s">
         <v>555</v>
       </c>
-      <c r="C12" s="87" t="n">
+      <c r="C12" s="89" t="n">
         <v>10.4</v>
       </c>
-      <c r="D12" s="87" t="n">
+      <c r="D12" s="89" t="n">
         <v>15.6</v>
       </c>
-      <c r="E12" s="87" t="n">
+      <c r="E12" s="89" t="n">
         <v>14.2</v>
       </c>
-      <c r="F12" s="87" t="n">
+      <c r="F12" s="89" t="n">
         <v>11.9</v>
       </c>
-      <c r="G12" s="88" t="n">
+      <c r="G12" s="90" t="n">
         <v>11.1</v>
       </c>
-      <c r="H12" s="88" t="n">
+      <c r="H12" s="90" t="n">
         <v>10.2</v>
       </c>
-      <c r="I12" s="88" t="n">
+      <c r="I12" s="90" t="n">
         <v>9.54</v>
       </c>
-      <c r="J12" s="88" t="n">
+      <c r="J12" s="90" t="n">
         <v>8.5</v>
       </c>
-      <c r="K12" s="88" t="n">
+      <c r="K12" s="90" t="n">
         <v>8.41</v>
       </c>
-      <c r="L12" s="88" t="n">
+      <c r="L12" s="90" t="n">
         <v>6.53</v>
       </c>
-      <c r="M12" s="88" t="n">
+      <c r="M12" s="90" t="n">
         <v>5.33</v>
       </c>
-      <c r="N12" s="88" t="n">
+      <c r="N12" s="90" t="n">
         <v>4.94</v>
       </c>
-      <c r="O12" s="98" t="n">
+      <c r="O12" s="101" t="n">
         <v>4.6</v>
       </c>
-      <c r="P12" s="51" t="n">
+      <c r="P12" s="88" t="n">
         <v>4.49</v>
       </c>
-      <c r="Q12" s="89" t="n">
+      <c r="Q12" s="91" t="n">
         <v>4.32</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="28" t="n">
+    <row r="13" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="65" t="n">
         <v>42797</v>
       </c>
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="102" t="s">
         <v>556</v>
       </c>
-      <c r="C13" s="88" t="n">
+      <c r="C13" s="90" t="n">
         <v>4.07</v>
       </c>
-      <c r="D13" s="88" t="n">
+      <c r="D13" s="90" t="n">
         <v>3.18</v>
       </c>
-      <c r="E13" s="88" t="n">
+      <c r="E13" s="90" t="n">
         <v>3.16</v>
       </c>
-      <c r="F13" s="88" t="n">
+      <c r="F13" s="90" t="n">
         <v>2.4</v>
       </c>
-      <c r="G13" s="88" t="n">
+      <c r="G13" s="90" t="n">
         <v>3.44</v>
       </c>
-      <c r="H13" s="88" t="n">
+      <c r="H13" s="90" t="n">
         <v>3.92</v>
       </c>
-      <c r="I13" s="88" t="n">
+      <c r="I13" s="90" t="n">
         <v>2.6</v>
       </c>
-      <c r="J13" s="88" t="n">
+      <c r="J13" s="90" t="n">
         <v>4.04</v>
       </c>
-      <c r="K13" s="88" t="n">
+      <c r="K13" s="90" t="n">
         <v>2.73</v>
       </c>
-      <c r="L13" s="88" t="n">
+      <c r="L13" s="90" t="n">
         <v>5.05</v>
       </c>
-      <c r="M13" s="88" t="n">
+      <c r="M13" s="90" t="n">
         <v>3.05</v>
       </c>
-      <c r="N13" s="88" t="n">
+      <c r="N13" s="90" t="n">
         <v>1.36</v>
       </c>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="89"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="92" t="n">
+      <c r="O13" s="88"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="91"/>
+    </row>
+    <row r="14" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="95" t="n">
         <v>42949</v>
       </c>
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="103" t="s">
         <v>557</v>
       </c>
-      <c r="C14" s="91" t="n">
+      <c r="C14" s="93" t="n">
         <v>9.55</v>
       </c>
-      <c r="D14" s="91" t="n">
+      <c r="D14" s="93" t="n">
         <v>9.54</v>
       </c>
-      <c r="E14" s="91" t="n">
+      <c r="E14" s="93" t="n">
         <v>9.15</v>
       </c>
-      <c r="F14" s="91" t="n">
+      <c r="F14" s="93" t="n">
         <v>9.45</v>
       </c>
-      <c r="G14" s="20" t="n">
+      <c r="G14" s="94" t="n">
         <v>19.1</v>
       </c>
-      <c r="H14" s="20" t="n">
+      <c r="H14" s="94" t="n">
         <v>43.9</v>
       </c>
-      <c r="I14" s="20" t="n">
+      <c r="I14" s="94" t="n">
         <v>35.3</v>
       </c>
-      <c r="J14" s="20" t="n">
+      <c r="J14" s="94" t="n">
         <v>24.9</v>
       </c>
-      <c r="K14" s="20" t="n">
+      <c r="K14" s="94" t="n">
         <v>23.1</v>
       </c>
-      <c r="L14" s="20" t="n">
+      <c r="L14" s="94" t="n">
         <v>22.4</v>
       </c>
-      <c r="M14" s="20" t="n">
+      <c r="M14" s="94" t="n">
         <v>23.2</v>
       </c>
-      <c r="N14" s="91" t="n">
+      <c r="N14" s="93" t="n">
         <v>8.76</v>
       </c>
-      <c r="O14" s="29" t="n">
+      <c r="O14" s="70" t="n">
         <v>8.37</v>
       </c>
-      <c r="P14" s="29" t="n">
+      <c r="P14" s="70" t="n">
         <v>7.1</v>
       </c>
-      <c r="Q14" s="29" t="n">
+      <c r="Q14" s="70" t="n">
         <v>6.86</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="92" t="n">
+    <row r="15" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="95" t="n">
         <v>42997</v>
       </c>
-      <c r="B15" s="100" t="s">
+      <c r="B15" s="103" t="s">
         <v>558</v>
       </c>
-      <c r="C15" s="101" t="n">
+      <c r="C15" s="104" t="n">
         <v>6.31</v>
       </c>
-      <c r="D15" s="102" t="n">
+      <c r="D15" s="105" t="n">
         <v>8.05</v>
       </c>
-      <c r="E15" s="102" t="n">
+      <c r="E15" s="105" t="n">
         <v>7.46</v>
       </c>
-      <c r="F15" s="102" t="n">
+      <c r="F15" s="105" t="n">
         <v>8.4</v>
       </c>
-      <c r="G15" s="103" t="n">
+      <c r="G15" s="106" t="n">
         <v>11.2</v>
       </c>
-      <c r="H15" s="103" t="n">
+      <c r="H15" s="106" t="n">
         <v>14.1</v>
       </c>
-      <c r="I15" s="103" t="n">
+      <c r="I15" s="106" t="n">
         <v>15.7</v>
       </c>
-      <c r="J15" s="103" t="n">
+      <c r="J15" s="106" t="n">
         <v>15.6</v>
       </c>
-      <c r="K15" s="103" t="s">
+      <c r="K15" s="106" t="s">
         <v>559</v>
       </c>
-      <c r="L15" s="96" t="s">
+      <c r="L15" s="99" t="s">
         <v>559</v>
       </c>
-      <c r="M15" s="103" t="n">
+      <c r="M15" s="106" t="n">
         <v>15.2</v>
       </c>
-      <c r="N15" s="96" t="n">
+      <c r="N15" s="99" t="n">
         <v>27</v>
       </c>
-      <c r="O15" s="104" t="n">
+      <c r="O15" s="107" t="n">
         <v>4.99</v>
       </c>
-      <c r="P15" s="103" t="n">
+      <c r="P15" s="106" t="n">
         <v>4.15</v>
       </c>
-      <c r="Q15" s="102" t="n">
+      <c r="Q15" s="105" t="n">
         <v>4.01</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="28" t="n">
+    <row r="16" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="65" t="n">
         <v>42926</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="66" t="s">
         <v>560</v>
       </c>
-      <c r="C16" s="105" t="n">
+      <c r="C16" s="108" t="n">
         <v>24</v>
       </c>
-      <c r="D16" s="105" t="n">
+      <c r="D16" s="108" t="n">
         <v>28.8</v>
       </c>
-      <c r="E16" s="105" t="n">
+      <c r="E16" s="108" t="n">
         <v>58.2</v>
       </c>
-      <c r="F16" s="105" t="n">
+      <c r="F16" s="108" t="n">
         <v>29</v>
       </c>
-      <c r="G16" s="105" t="n">
+      <c r="G16" s="108" t="n">
         <v>21.7</v>
       </c>
-      <c r="H16" s="105" t="n">
+      <c r="H16" s="108" t="n">
         <v>20.3</v>
       </c>
-      <c r="I16" s="105" t="n">
+      <c r="I16" s="108" t="n">
         <v>20.1</v>
       </c>
-      <c r="J16" s="105" t="n">
+      <c r="J16" s="108" t="n">
         <v>13.1</v>
       </c>
-      <c r="K16" s="105" t="n">
+      <c r="K16" s="108" t="n">
         <v>10.5</v>
       </c>
-      <c r="L16" s="105" t="n">
+      <c r="L16" s="108" t="n">
         <v>9.82</v>
       </c>
-      <c r="M16" s="105" t="n">
+      <c r="M16" s="108" t="n">
         <v>9.51</v>
       </c>
-      <c r="N16" s="105" t="n">
+      <c r="N16" s="108" t="n">
         <v>8.93</v>
       </c>
-      <c r="O16" s="106" t="n">
+      <c r="O16" s="67" t="n">
         <v>8.77</v>
       </c>
-      <c r="P16" s="106" t="n">
+      <c r="P16" s="67" t="n">
         <v>8.33</v>
       </c>
-      <c r="Q16" s="106" t="n">
+      <c r="Q16" s="67" t="n">
         <v>7.95</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="28" t="n">
+    <row r="17" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="65" t="n">
         <v>42893</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="73" t="s">
         <v>561</v>
       </c>
-      <c r="C17" s="107" t="n">
+      <c r="C17" s="109" t="n">
         <v>6.19</v>
       </c>
-      <c r="D17" s="107" t="n">
+      <c r="D17" s="109" t="n">
         <v>2.55</v>
       </c>
-      <c r="E17" s="107" t="n">
+      <c r="E17" s="109" t="n">
         <v>4.78</v>
       </c>
-      <c r="F17" s="107" t="n">
+      <c r="F17" s="109" t="n">
         <v>2.27</v>
       </c>
-      <c r="G17" s="108" t="n">
+      <c r="G17" s="110" t="n">
         <v>2.3</v>
       </c>
-      <c r="H17" s="107" t="n">
+      <c r="H17" s="109" t="n">
         <v>2.58</v>
       </c>
-      <c r="I17" s="107" t="n">
+      <c r="I17" s="109" t="n">
         <v>4.33</v>
       </c>
-      <c r="J17" s="107" t="n">
+      <c r="J17" s="109" t="n">
         <v>2.22</v>
       </c>
-      <c r="K17" s="107" t="n">
+      <c r="K17" s="109" t="n">
         <v>2.13</v>
       </c>
-      <c r="L17" s="107" t="n">
+      <c r="L17" s="109" t="n">
         <v>2.13</v>
       </c>
-      <c r="M17" s="107" t="n">
+      <c r="M17" s="109" t="n">
         <v>1.96</v>
       </c>
-      <c r="N17" s="107" t="n">
+      <c r="N17" s="109" t="n">
         <v>1.91</v>
       </c>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="89"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="n">
+      <c r="O17" s="88"/>
+      <c r="P17" s="88"/>
+      <c r="Q17" s="91"/>
+    </row>
+    <row r="18" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="72" t="n">
         <v>42882</v>
       </c>
-      <c r="B18" s="109" t="s">
+      <c r="B18" s="111" t="s">
         <v>562</v>
       </c>
-      <c r="C18" s="107" t="n">
+      <c r="C18" s="109" t="n">
         <v>5.2</v>
       </c>
-      <c r="D18" s="107" t="n">
+      <c r="D18" s="109" t="n">
         <v>6.06</v>
       </c>
-      <c r="E18" s="107" t="n">
+      <c r="E18" s="109" t="n">
         <v>5.11</v>
       </c>
-      <c r="F18" s="107" t="n">
+      <c r="F18" s="109" t="n">
         <v>7.11</v>
       </c>
-      <c r="G18" s="107" t="n">
+      <c r="G18" s="109" t="n">
         <v>6.05</v>
       </c>
-      <c r="H18" s="107" t="n">
+      <c r="H18" s="109" t="n">
         <v>4.51</v>
       </c>
-      <c r="I18" s="107" t="n">
+      <c r="I18" s="109" t="n">
         <v>4.96</v>
       </c>
-      <c r="J18" s="107" t="n">
+      <c r="J18" s="109" t="n">
         <v>3.55</v>
       </c>
-      <c r="K18" s="107" t="n">
+      <c r="K18" s="109" t="n">
         <v>3.49</v>
       </c>
-      <c r="L18" s="107" t="n">
+      <c r="L18" s="109" t="n">
         <v>2.22</v>
       </c>
-      <c r="M18" s="108" t="n">
+      <c r="M18" s="110" t="n">
         <v>2</v>
       </c>
-      <c r="N18" s="107" t="n">
+      <c r="N18" s="109" t="n">
         <v>1.57</v>
       </c>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="29"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="110" t="n">
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="70"/>
+    </row>
+    <row r="19" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="112" t="n">
         <v>42882</v>
       </c>
-      <c r="B19" s="111" t="s">
+      <c r="B19" s="113" t="s">
         <v>563</v>
       </c>
-      <c r="C19" s="107" t="n">
+      <c r="C19" s="109" t="n">
         <v>13.9</v>
       </c>
-      <c r="D19" s="107" t="n">
+      <c r="D19" s="109" t="n">
         <v>23.1</v>
       </c>
-      <c r="E19" s="107" t="n">
+      <c r="E19" s="109" t="n">
         <v>39.8</v>
       </c>
-      <c r="F19" s="107" t="n">
+      <c r="F19" s="109" t="n">
         <v>26.7</v>
       </c>
-      <c r="G19" s="107" t="n">
+      <c r="G19" s="109" t="n">
         <v>27</v>
       </c>
-      <c r="H19" s="107" t="n">
+      <c r="H19" s="109" t="n">
         <v>25.3</v>
       </c>
-      <c r="I19" s="107" t="n">
+      <c r="I19" s="109" t="n">
         <v>24.9</v>
       </c>
-      <c r="J19" s="107" t="n">
+      <c r="J19" s="109" t="n">
         <v>24.7</v>
       </c>
-      <c r="K19" s="107" t="n">
+      <c r="K19" s="109" t="n">
         <v>33.1</v>
       </c>
-      <c r="L19" s="107" t="n">
+      <c r="L19" s="109" t="n">
         <v>17.4</v>
       </c>
-      <c r="M19" s="107" t="n">
+      <c r="M19" s="109" t="n">
         <v>6.18</v>
       </c>
-      <c r="N19" s="107" t="n">
+      <c r="N19" s="109" t="n">
         <v>5.3</v>
       </c>
-      <c r="O19" s="104"/>
-      <c r="P19" s="103"/>
-      <c r="Q19" s="102"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18" t="n">
+      <c r="O19" s="107"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="105"/>
+    </row>
+    <row r="20" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="72" t="n">
         <v>42957</v>
       </c>
-      <c r="B20" s="109" t="s">
+      <c r="B20" s="111" t="s">
         <v>563</v>
       </c>
-      <c r="C20" s="106" t="n">
+      <c r="C20" s="67" t="n">
         <v>14.3</v>
       </c>
-      <c r="D20" s="106" t="n">
+      <c r="D20" s="67" t="n">
         <v>21.7</v>
       </c>
-      <c r="E20" s="106" t="n">
+      <c r="E20" s="67" t="n">
         <v>28.2</v>
       </c>
-      <c r="F20" s="106" t="n">
+      <c r="F20" s="67" t="n">
         <v>29.6</v>
       </c>
-      <c r="G20" s="106" t="n">
+      <c r="G20" s="67" t="n">
         <v>30.5</v>
       </c>
-      <c r="H20" s="106" t="n">
+      <c r="H20" s="67" t="n">
         <v>30</v>
       </c>
-      <c r="I20" s="106" t="n">
+      <c r="I20" s="67" t="n">
         <v>33.6</v>
       </c>
-      <c r="J20" s="106" t="n">
+      <c r="J20" s="67" t="n">
         <v>38.6</v>
       </c>
-      <c r="K20" s="106" t="n">
+      <c r="K20" s="67" t="n">
         <v>34.8</v>
       </c>
-      <c r="L20" s="106" t="n">
+      <c r="L20" s="67" t="n">
         <v>32.1</v>
       </c>
-      <c r="M20" s="106" t="n">
+      <c r="M20" s="67" t="n">
         <v>10.4</v>
       </c>
-      <c r="N20" s="106" t="n">
+      <c r="N20" s="67" t="n">
         <v>8.32</v>
       </c>
-      <c r="O20" s="112" t="n">
+      <c r="O20" s="114" t="n">
         <v>8.04</v>
       </c>
-      <c r="P20" s="107" t="n">
+      <c r="P20" s="109" t="n">
         <v>7.87</v>
       </c>
-      <c r="Q20" s="107" t="n">
+      <c r="Q20" s="109" t="n">
         <v>7.61</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="28" t="n">
+    <row r="21" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="65" t="n">
         <v>42893</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="66" t="s">
         <v>564</v>
       </c>
-      <c r="C21" s="106" t="n">
+      <c r="C21" s="67" t="n">
         <v>177</v>
       </c>
-      <c r="D21" s="106" t="n">
+      <c r="D21" s="67" t="n">
         <v>93.4</v>
       </c>
-      <c r="E21" s="106" t="n">
+      <c r="E21" s="67" t="n">
         <v>123</v>
       </c>
-      <c r="F21" s="106" t="n">
+      <c r="F21" s="67" t="n">
         <v>110</v>
       </c>
-      <c r="G21" s="106" t="n">
+      <c r="G21" s="67" t="n">
         <v>84.1</v>
       </c>
-      <c r="H21" s="106" t="n">
+      <c r="H21" s="67" t="n">
         <v>70.9</v>
       </c>
-      <c r="I21" s="106" t="n">
+      <c r="I21" s="67" t="n">
         <v>41.5</v>
       </c>
-      <c r="J21" s="106" t="n">
+      <c r="J21" s="67" t="n">
         <v>22.7</v>
       </c>
-      <c r="K21" s="106" t="n">
+      <c r="K21" s="67" t="n">
         <v>42.5</v>
       </c>
-      <c r="L21" s="106" t="n">
+      <c r="L21" s="67" t="n">
         <v>52.9</v>
       </c>
-      <c r="M21" s="106" t="n">
+      <c r="M21" s="67" t="n">
         <v>9.93</v>
       </c>
-      <c r="N21" s="106" t="n">
+      <c r="N21" s="67" t="n">
         <v>7.82</v>
       </c>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="29"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="81" t="n">
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="70"/>
+    </row>
+    <row r="22" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="76" t="n">
         <v>43061</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="73" t="s">
         <v>565</v>
       </c>
-      <c r="C22" s="113" t="n">
+      <c r="C22" s="74" t="n">
         <v>12.7</v>
       </c>
-      <c r="D22" s="31" t="n">
+      <c r="D22" s="75" t="n">
         <v>12.5</v>
       </c>
-      <c r="E22" s="31" t="n">
+      <c r="E22" s="75" t="n">
         <v>11.6</v>
       </c>
-      <c r="F22" s="31" t="n">
+      <c r="F22" s="75" t="n">
         <v>11.5</v>
       </c>
-      <c r="G22" s="14" t="n">
+      <c r="G22" s="66" t="n">
         <v>16.9</v>
       </c>
-      <c r="H22" s="14" t="n">
+      <c r="H22" s="66" t="n">
         <v>23.1</v>
       </c>
-      <c r="I22" s="14" t="n">
+      <c r="I22" s="66" t="n">
         <v>24.6</v>
       </c>
-      <c r="J22" s="14" t="n">
+      <c r="J22" s="66" t="n">
         <v>23.7</v>
       </c>
-      <c r="K22" s="14" t="n">
+      <c r="K22" s="66" t="n">
         <v>24.2</v>
       </c>
-      <c r="L22" s="14" t="n">
+      <c r="L22" s="66" t="n">
         <v>23.6</v>
       </c>
-      <c r="M22" s="14" t="n">
+      <c r="M22" s="66" t="n">
         <v>19.2</v>
       </c>
-      <c r="N22" s="14" t="n">
+      <c r="N22" s="66" t="n">
         <v>6.18</v>
       </c>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="29"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="114" t="n">
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="70"/>
+    </row>
+    <row r="23" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="115" t="n">
         <v>43047</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="73" t="s">
         <v>566</v>
       </c>
-      <c r="C23" s="39" t="n">
+      <c r="C23" s="81" t="n">
         <v>4.45</v>
       </c>
-      <c r="D23" s="39" t="n">
+      <c r="D23" s="81" t="n">
         <v>7.35</v>
       </c>
-      <c r="E23" s="39" t="n">
+      <c r="E23" s="81" t="n">
         <v>12.3</v>
       </c>
-      <c r="F23" s="39" t="n">
+      <c r="F23" s="81" t="n">
         <v>17.1</v>
       </c>
-      <c r="G23" s="39" t="n">
+      <c r="G23" s="81" t="n">
         <v>15</v>
       </c>
       <c r="H23" s="82" t="n">
         <v>13.3</v>
       </c>
-      <c r="I23" s="22" t="n">
+      <c r="I23" s="83" t="n">
         <v>12.5</v>
       </c>
-      <c r="J23" s="25" t="n">
+      <c r="J23" s="73" t="n">
         <v>11.3</v>
       </c>
-      <c r="K23" s="39" t="n">
+      <c r="K23" s="81" t="n">
         <v>8.25</v>
       </c>
-      <c r="L23" s="39" t="n">
+      <c r="L23" s="81" t="n">
         <v>4.18</v>
       </c>
-      <c r="M23" s="39" t="n">
+      <c r="M23" s="81" t="n">
         <v>3.49</v>
       </c>
-      <c r="N23" s="39" t="n">
+      <c r="N23" s="81" t="n">
         <v>3.37</v>
       </c>
-      <c r="O23" s="39"/>
+      <c r="O23" s="81"/>
       <c r="P23" s="82"/>
-      <c r="Q23" s="22"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="110" t="n">
+      <c r="Q23" s="83"/>
+    </row>
+    <row r="24" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="112" t="n">
         <v>42672</v>
       </c>
-      <c r="B24" s="99" t="s">
+      <c r="B24" s="102" t="s">
         <v>567</v>
       </c>
-      <c r="C24" s="20" t="n">
+      <c r="C24" s="94" t="n">
         <v>16.3</v>
       </c>
-      <c r="D24" s="20" t="n">
+      <c r="D24" s="94" t="n">
         <v>24.3</v>
       </c>
-      <c r="E24" s="20" t="n">
+      <c r="E24" s="94" t="n">
         <v>34.7</v>
       </c>
-      <c r="F24" s="20" t="n">
+      <c r="F24" s="94" t="n">
         <v>30.5</v>
       </c>
-      <c r="G24" s="20" t="n">
+      <c r="G24" s="94" t="n">
         <v>29.9</v>
       </c>
-      <c r="H24" s="20" t="n">
+      <c r="H24" s="94" t="n">
         <v>26</v>
       </c>
-      <c r="I24" s="20" t="n">
+      <c r="I24" s="94" t="n">
         <v>21.6</v>
       </c>
-      <c r="J24" s="20" t="n">
+      <c r="J24" s="94" t="n">
         <v>23.9</v>
       </c>
-      <c r="K24" s="20" t="n">
+      <c r="K24" s="94" t="n">
         <v>24.5</v>
       </c>
-      <c r="L24" s="20" t="n">
+      <c r="L24" s="94" t="n">
         <v>21.4</v>
       </c>
-      <c r="M24" s="91" t="n">
+      <c r="M24" s="93" t="n">
         <v>4.78</v>
       </c>
-      <c r="N24" s="91" t="n">
+      <c r="N24" s="93" t="n">
         <v>4.35</v>
       </c>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="29"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="114" t="n">
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="70"/>
+    </row>
+    <row r="25" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="115" t="n">
         <v>42994</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="73" t="s">
         <v>568</v>
       </c>
-      <c r="C25" s="39" t="n">
+      <c r="C25" s="81" t="n">
         <v>6.66</v>
       </c>
-      <c r="D25" s="39" t="n">
+      <c r="D25" s="81" t="n">
         <v>15.7</v>
       </c>
-      <c r="E25" s="39" t="n">
+      <c r="E25" s="81" t="n">
         <v>31</v>
       </c>
-      <c r="F25" s="39" t="n">
+      <c r="F25" s="81" t="n">
         <v>28.2</v>
       </c>
-      <c r="G25" s="39" t="n">
+      <c r="G25" s="81" t="n">
         <v>24.3</v>
       </c>
       <c r="H25" s="82" t="n">
         <v>21.2</v>
       </c>
-      <c r="I25" s="22" t="n">
+      <c r="I25" s="83" t="n">
         <v>18.8</v>
       </c>
-      <c r="J25" s="25" t="n">
+      <c r="J25" s="73" t="n">
         <v>17.1</v>
       </c>
-      <c r="K25" s="39" t="n">
+      <c r="K25" s="81" t="n">
         <v>14.9</v>
       </c>
-      <c r="L25" s="39" t="n">
+      <c r="L25" s="81" t="n">
         <v>13.1</v>
       </c>
-      <c r="M25" s="39" t="n">
+      <c r="M25" s="81" t="n">
         <v>12.6</v>
       </c>
-      <c r="N25" s="39" t="n">
+      <c r="N25" s="81" t="n">
         <v>6.06</v>
       </c>
-      <c r="O25" s="39" t="n">
+      <c r="O25" s="81" t="n">
         <v>5.59</v>
       </c>
       <c r="P25" s="82" t="n">
         <v>5.59</v>
       </c>
-      <c r="Q25" s="22" t="n">
+      <c r="Q25" s="83" t="n">
         <v>4.76</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="114" t="n">
+    <row r="26" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="115" t="n">
         <v>43034</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="73" t="s">
         <v>569</v>
       </c>
-      <c r="C26" s="39" t="n">
+      <c r="C26" s="81" t="n">
         <v>8.87</v>
       </c>
-      <c r="D26" s="39" t="n">
+      <c r="D26" s="81" t="n">
         <v>9.58</v>
       </c>
-      <c r="E26" s="39" t="n">
+      <c r="E26" s="81" t="n">
         <v>9.48</v>
       </c>
-      <c r="F26" s="39" t="n">
+      <c r="F26" s="81" t="n">
         <v>7.73</v>
       </c>
-      <c r="G26" s="39" t="n">
+      <c r="G26" s="81" t="n">
         <v>8.14</v>
       </c>
       <c r="H26" s="82" t="n">
         <v>9.04</v>
       </c>
-      <c r="I26" s="22" t="n">
+      <c r="I26" s="83" t="n">
         <v>8.23</v>
       </c>
-      <c r="J26" s="25" t="n">
+      <c r="J26" s="73" t="n">
         <v>7.32</v>
       </c>
-      <c r="K26" s="39" t="n">
+      <c r="K26" s="81" t="n">
         <v>6.8</v>
       </c>
-      <c r="L26" s="39" t="n">
+      <c r="L26" s="81" t="n">
         <v>7.78</v>
       </c>
-      <c r="M26" s="39" t="n">
+      <c r="M26" s="81" t="n">
         <v>6.42</v>
       </c>
-      <c r="N26" s="39" t="n">
+      <c r="N26" s="81" t="n">
         <v>6.83</v>
       </c>
-      <c r="O26" s="39" t="n">
+      <c r="O26" s="81" t="n">
         <v>6.38</v>
       </c>
       <c r="P26" s="82" t="n">
         <v>5.53</v>
       </c>
-      <c r="Q26" s="22" t="n">
+      <c r="Q26" s="83" t="n">
         <v>5.4</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="18" t="n">
+    <row r="27" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="72" t="n">
         <v>42854</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="73" t="s">
         <v>570</v>
       </c>
-      <c r="C27" s="91" t="n">
+      <c r="C27" s="93" t="n">
         <v>3.95</v>
       </c>
-      <c r="D27" s="20" t="n">
+      <c r="D27" s="94" t="n">
         <v>10.7</v>
       </c>
-      <c r="E27" s="20" t="n">
+      <c r="E27" s="94" t="n">
         <v>17.7</v>
       </c>
-      <c r="F27" s="20" t="n">
+      <c r="F27" s="94" t="n">
         <v>15.5</v>
       </c>
-      <c r="G27" s="20" t="n">
+      <c r="G27" s="94" t="n">
         <v>14.4</v>
       </c>
-      <c r="H27" s="20" t="n">
+      <c r="H27" s="94" t="n">
         <v>13.8</v>
       </c>
-      <c r="I27" s="20" t="n">
+      <c r="I27" s="94" t="n">
         <v>12.6</v>
       </c>
-      <c r="J27" s="91" t="n">
+      <c r="J27" s="93" t="n">
         <v>9.49</v>
       </c>
-      <c r="K27" s="91" t="n">
+      <c r="K27" s="93" t="n">
         <v>5.98</v>
       </c>
-      <c r="L27" s="91" t="n">
+      <c r="L27" s="93" t="n">
         <v>3.22</v>
       </c>
-      <c r="M27" s="91" t="n">
+      <c r="M27" s="93" t="n">
         <v>3.06</v>
       </c>
-      <c r="N27" s="91" t="n">
+      <c r="N27" s="93" t="n">
         <v>1.99</v>
       </c>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="29"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="18" t="n">
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="70"/>
+    </row>
+    <row r="28" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="72" t="n">
         <v>42931</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="73" t="s">
         <v>570</v>
       </c>
-      <c r="C28" s="106" t="n">
+      <c r="C28" s="67" t="n">
         <v>7.58</v>
       </c>
-      <c r="D28" s="106" t="n">
+      <c r="D28" s="67" t="n">
         <v>8.37</v>
       </c>
-      <c r="E28" s="106" t="n">
+      <c r="E28" s="67" t="n">
         <v>8.27</v>
       </c>
-      <c r="F28" s="115" t="n">
+      <c r="F28" s="116" t="n">
         <v>8.4</v>
       </c>
-      <c r="G28" s="106" t="n">
+      <c r="G28" s="67" t="n">
         <v>8.47</v>
       </c>
-      <c r="H28" s="106" t="n">
+      <c r="H28" s="67" t="n">
         <v>8.52</v>
       </c>
-      <c r="I28" s="106" t="n">
+      <c r="I28" s="67" t="n">
         <v>8.14</v>
       </c>
-      <c r="J28" s="115" t="n">
+      <c r="J28" s="116" t="n">
         <v>7.4</v>
       </c>
-      <c r="K28" s="106" t="n">
+      <c r="K28" s="67" t="n">
         <v>7.04</v>
       </c>
-      <c r="L28" s="106" t="n">
+      <c r="L28" s="67" t="n">
         <v>6.81</v>
       </c>
-      <c r="M28" s="106" t="n">
+      <c r="M28" s="67" t="n">
         <v>6.77</v>
       </c>
-      <c r="N28" s="106" t="n">
+      <c r="N28" s="67" t="n">
         <v>5.31</v>
       </c>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="29"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="28" t="n">
+      <c r="O28" s="66"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="70"/>
+    </row>
+    <row r="29" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="65" t="n">
         <v>42872</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="66" t="s">
         <v>571</v>
       </c>
-      <c r="C29" s="106" t="n">
+      <c r="C29" s="67" t="n">
         <v>6.08</v>
       </c>
-      <c r="D29" s="106" t="n">
+      <c r="D29" s="67" t="n">
         <v>7.74</v>
       </c>
-      <c r="E29" s="106" t="n">
+      <c r="E29" s="67" t="n">
         <v>11.7</v>
       </c>
-      <c r="F29" s="106" t="n">
+      <c r="F29" s="67" t="n">
         <v>10.1</v>
       </c>
-      <c r="G29" s="106" t="n">
+      <c r="G29" s="67" t="n">
         <v>9.96</v>
       </c>
-      <c r="H29" s="106" t="n">
+      <c r="H29" s="67" t="n">
         <v>10.7</v>
       </c>
-      <c r="I29" s="113" t="n">
+      <c r="I29" s="74" t="n">
         <v>11</v>
       </c>
-      <c r="J29" s="106" t="n">
+      <c r="J29" s="67" t="n">
         <v>9.67</v>
       </c>
-      <c r="K29" s="106" t="n">
+      <c r="K29" s="67" t="n">
         <v>12.3</v>
       </c>
-      <c r="L29" s="106" t="n">
+      <c r="L29" s="67" t="n">
         <v>6.02</v>
       </c>
-      <c r="M29" s="106" t="n">
+      <c r="M29" s="67" t="n">
         <v>5.18</v>
       </c>
-      <c r="N29" s="106" t="n">
+      <c r="N29" s="67" t="n">
         <v>4.78</v>
       </c>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="29"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="70"/>
     </row>
     <row r="30" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="76" t="n">
@@ -26827,45 +26911,45 @@
       <c r="B30" s="73" t="s">
         <v>572</v>
       </c>
-      <c r="C30" s="116" t="n">
+      <c r="C30" s="81" t="n">
         <v>1.73</v>
       </c>
-      <c r="D30" s="116" t="n">
+      <c r="D30" s="81" t="n">
         <v>23.1</v>
       </c>
-      <c r="E30" s="116" t="n">
+      <c r="E30" s="81" t="n">
         <v>4.67</v>
       </c>
-      <c r="F30" s="116" t="n">
+      <c r="F30" s="81" t="n">
         <v>4.19</v>
       </c>
-      <c r="G30" s="116" t="n">
+      <c r="G30" s="81" t="n">
         <v>4.88</v>
       </c>
-      <c r="H30" s="117" t="n">
+      <c r="H30" s="82" t="n">
         <v>3.79</v>
       </c>
-      <c r="I30" s="118" t="n">
+      <c r="I30" s="83" t="n">
         <v>2.18</v>
       </c>
       <c r="J30" s="73" t="n">
         <v>2.12</v>
       </c>
-      <c r="K30" s="116" t="n">
+      <c r="K30" s="81" t="n">
         <v>1.73</v>
       </c>
-      <c r="L30" s="116" t="n">
+      <c r="L30" s="81" t="n">
         <v>1.9</v>
       </c>
-      <c r="M30" s="116" t="n">
+      <c r="M30" s="81" t="n">
         <v>2.33</v>
       </c>
-      <c r="N30" s="116" t="n">
+      <c r="N30" s="81" t="n">
         <v>1.36</v>
       </c>
-      <c r="O30" s="116"/>
-      <c r="P30" s="117"/>
-      <c r="Q30" s="118"/>
+      <c r="O30" s="81"/>
+      <c r="P30" s="82"/>
+      <c r="Q30" s="83"/>
     </row>
     <row r="31" s="71" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="72" t="n">
@@ -26921,40 +27005,40 @@
       <c r="B32" s="73" t="s">
         <v>574</v>
       </c>
-      <c r="C32" s="119" t="n">
+      <c r="C32" s="93" t="n">
         <v>5.54</v>
       </c>
-      <c r="D32" s="119" t="n">
+      <c r="D32" s="93" t="n">
         <v>3.96</v>
       </c>
-      <c r="E32" s="119" t="n">
+      <c r="E32" s="93" t="n">
         <v>3.06</v>
       </c>
-      <c r="F32" s="120" t="n">
+      <c r="F32" s="94" t="n">
         <v>12.5</v>
       </c>
-      <c r="G32" s="120" t="n">
+      <c r="G32" s="94" t="n">
         <v>26.9</v>
       </c>
-      <c r="H32" s="120" t="n">
+      <c r="H32" s="94" t="n">
         <v>14.2</v>
       </c>
-      <c r="I32" s="120" t="n">
+      <c r="I32" s="94" t="n">
         <v>13.2</v>
       </c>
-      <c r="J32" s="120" t="n">
+      <c r="J32" s="94" t="n">
         <v>30.9</v>
       </c>
-      <c r="K32" s="120" t="n">
+      <c r="K32" s="94" t="n">
         <v>20.6</v>
       </c>
-      <c r="L32" s="119" t="n">
+      <c r="L32" s="93" t="n">
         <v>5.13</v>
       </c>
-      <c r="M32" s="119" t="n">
+      <c r="M32" s="93" t="n">
         <v>9.49</v>
       </c>
-      <c r="N32" s="119" t="n">
+      <c r="N32" s="93" t="n">
         <v>2.79</v>
       </c>
       <c r="O32" s="75"/>
@@ -26968,40 +27052,40 @@
       <c r="B33" s="73" t="s">
         <v>574</v>
       </c>
-      <c r="C33" s="120" t="n">
+      <c r="C33" s="94" t="n">
         <v>13.1</v>
       </c>
-      <c r="D33" s="121" t="n">
+      <c r="D33" s="117" t="n">
         <v>3</v>
       </c>
-      <c r="E33" s="119" t="n">
+      <c r="E33" s="93" t="n">
         <v>3.05</v>
       </c>
-      <c r="F33" s="119" t="n">
+      <c r="F33" s="93" t="n">
         <v>3.84</v>
       </c>
-      <c r="G33" s="119" t="n">
+      <c r="G33" s="93" t="n">
         <v>6.53</v>
       </c>
-      <c r="H33" s="119" t="n">
+      <c r="H33" s="93" t="n">
         <v>8.34</v>
       </c>
-      <c r="I33" s="120" t="n">
+      <c r="I33" s="94" t="n">
         <v>11.6</v>
       </c>
-      <c r="J33" s="119" t="n">
+      <c r="J33" s="93" t="n">
         <v>9.71</v>
       </c>
-      <c r="K33" s="119" t="n">
+      <c r="K33" s="93" t="n">
         <v>9.46</v>
       </c>
-      <c r="L33" s="120" t="n">
+      <c r="L33" s="94" t="n">
         <v>14.4</v>
       </c>
-      <c r="M33" s="120" t="n">
+      <c r="M33" s="94" t="n">
         <v>8.2</v>
       </c>
-      <c r="N33" s="119" t="n">
+      <c r="N33" s="93" t="n">
         <v>3.1</v>
       </c>
       <c r="O33" s="70" t="n">
@@ -27021,16 +27105,16 @@
       <c r="B34" s="66" t="s">
         <v>575</v>
       </c>
-      <c r="C34" s="122" t="n">
+      <c r="C34" s="116" t="n">
         <v>5.12</v>
       </c>
-      <c r="D34" s="119" t="n">
+      <c r="D34" s="93" t="n">
         <v>6.39</v>
       </c>
-      <c r="E34" s="119" t="n">
+      <c r="E34" s="93" t="n">
         <v>6.69</v>
       </c>
-      <c r="F34" s="119" t="n">
+      <c r="F34" s="93" t="n">
         <v>7.95</v>
       </c>
       <c r="G34" s="70" t="n">
@@ -27065,22 +27149,22 @@
       <c r="A35" s="55" t="s">
         <v>529</v>
       </c>
-      <c r="B35" s="123"/>
-      <c r="C35" s="123"/>
-      <c r="D35" s="123"/>
-      <c r="E35" s="123"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="123"/>
-      <c r="I35" s="123"/>
-      <c r="J35" s="123"/>
-      <c r="K35" s="123"/>
-      <c r="L35" s="123"/>
-      <c r="M35" s="123"/>
-      <c r="N35" s="123"/>
-      <c r="O35" s="123"/>
-      <c r="P35" s="123"/>
-      <c r="Q35" s="123"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="118"/>
+      <c r="I35" s="118"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="118"/>
+      <c r="L35" s="118"/>
+      <c r="M35" s="118"/>
+      <c r="N35" s="118"/>
+      <c r="O35" s="118"/>
+      <c r="P35" s="118"/>
+      <c r="Q35" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -27110,7 +27194,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
     <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ref!="TBS"</formula>
+      <formula>#REF!="TBS"</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
